--- a/tests/test1/d20/ЛМ, 0.3.xlsx
+++ b/tests/test1/d20/ЛМ, 0.3.xlsx
@@ -546,7 +546,7 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Точ</t>
+          <t>Успех</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.006062900000003424</v>
+        <v>0.00291599999999903</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.002773699999998769</v>
+        <v>0.002648700000001725</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.002178800000002923</v>
+        <v>0.002041399999995974</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.004465400000000841</v>
+        <v>0.002602700000004177</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.003327000000005853</v>
+        <v>0.004658900000002575</v>
       </c>
       <c r="Y6" t="n">
         <v>9</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.002194399999993379</v>
+        <v>0.002078599999997266</v>
       </c>
       <c r="Y7" t="n">
         <v>8</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.002545900000001211</v>
+        <v>0.004502899999998533</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.003348899999998878</v>
+        <v>0.001984600000000114</v>
       </c>
       <c r="Y9" t="n">
         <v>8</v>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.008833599999995556</v>
+        <v>0.00657910000000328</v>
       </c>
       <c r="Y10" t="n">
         <v>24</v>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.001857000000001108</v>
+        <v>0.001820299999998554</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.002065600000001666</v>
+        <v>0.003117099999997208</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.002112700000004963</v>
+        <v>0.001997600000002819</v>
       </c>
       <c r="Y13" t="n">
         <v>8</v>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.002073299999999278</v>
+        <v>0.002099000000001183</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.002475400000001571</v>
+        <v>0.002219599999996547</v>
       </c>
       <c r="Y15" t="n">
         <v>9</v>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.002614200000003564</v>
+        <v>0.002419699999997249</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.002150600000000225</v>
+        <v>0.002075400000002503</v>
       </c>
       <c r="Y17" t="n">
         <v>8</v>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.00212349999999617</v>
+        <v>0.002379599999997595</v>
       </c>
       <c r="Y18" t="n">
         <v>8</v>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.002124099999996076</v>
+        <v>0.003276900000003025</v>
       </c>
       <c r="Y19" t="n">
         <v>8</v>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.002509600000003331</v>
+        <v>0.002825200000003747</v>
       </c>
       <c r="Y20" t="n">
         <v>9</v>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.002118499999994583</v>
+        <v>0.003967899999999247</v>
       </c>
       <c r="Y21" t="n">
         <v>8</v>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.003364299999994103</v>
+        <v>0.005459700000002954</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.001849599999999896</v>
+        <v>0.002578800000001991</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.002088499999999271</v>
+        <v>0.002332899999998972</v>
       </c>
       <c r="Y24" t="n">
         <v>8</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.002890600000000632</v>
+        <v>0.003949500000004491</v>
       </c>
       <c r="Y25" t="n">
         <v>11</v>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.00280649999999838</v>
+        <v>0.002930599999999117</v>
       </c>
       <c r="Y26" t="n">
         <v>11</v>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.003250000000001307</v>
+        <v>0.004144500000002438</v>
       </c>
       <c r="Y27" t="n">
         <v>13</v>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.002090099999996653</v>
+        <v>0.004019900000002963</v>
       </c>
       <c r="Y28" t="n">
         <v>8</v>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.002677999999995961</v>
+        <v>0.006020200000001807</v>
       </c>
       <c r="Y29" t="n">
         <v>10</v>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.002595399999997028</v>
+        <v>0.002688300000002641</v>
       </c>
       <c r="Y30" t="n">
         <v>10</v>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.003438299999999117</v>
+        <v>0.004013299999996889</v>
       </c>
       <c r="Y31" t="n">
         <v>9</v>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.002407599999997956</v>
+        <v>0.00430250000000143</v>
       </c>
       <c r="Y32" t="n">
         <v>9</v>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.002472300000000871</v>
+        <v>0.00232859999999846</v>
       </c>
       <c r="Y33" t="n">
         <v>9</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.002540100000004486</v>
+        <v>0.003765500000000088</v>
       </c>
       <c r="Y34" t="n">
         <v>9</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.002137999999995088</v>
+        <v>0.003847700000001453</v>
       </c>
       <c r="Y35" t="n">
         <v>8</v>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.001919299999997293</v>
+        <v>0.0021290000000036</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.002407699999999124</v>
+        <v>0.002286400000002686</v>
       </c>
       <c r="Y37" t="n">
         <v>9</v>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.00489679999999737</v>
+        <v>0.003710600000005115</v>
       </c>
       <c r="Y38" t="n">
         <v>15</v>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.002335600000002103</v>
+        <v>0.002500200000000063</v>
       </c>
       <c r="Y39" t="n">
         <v>9</v>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.0036653999999956</v>
+        <v>0.002947300000002429</v>
       </c>
       <c r="Y40" t="n">
         <v>10</v>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.002871300000002464</v>
+        <v>0.002836700000003134</v>
       </c>
       <c r="Y41" t="n">
         <v>11</v>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.002132199999998363</v>
+        <v>0.002270299999999281</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.0021355000000014</v>
+        <v>0.00209650000000039</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.00278870000000353</v>
+        <v>0.00356000000000023</v>
       </c>
       <c r="Y44" t="n">
         <v>10</v>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.002181100000001379</v>
+        <v>0.00385270000000304</v>
       </c>
       <c r="Y45" t="n">
         <v>8</v>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.002113500000000101</v>
+        <v>0.004352400000001921</v>
       </c>
       <c r="Y46" t="n">
         <v>8</v>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.002870399999999051</v>
+        <v>0.00393929999999898</v>
       </c>
       <c r="Y47" t="n">
         <v>8</v>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.004192799999998442</v>
+        <v>0.004072200000003079</v>
       </c>
       <c r="Y48" t="n">
         <v>18</v>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.002690499999999929</v>
+        <v>0.002615599999998608</v>
       </c>
       <c r="Y49" t="n">
         <v>8</v>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.001871799999996426</v>
+        <v>0.00213380000000285</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.002235000000005982</v>
+        <v>0.002184300000003248</v>
       </c>
       <c r="Y51" t="n">
         <v>8</v>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.002441000000004578</v>
+        <v>0.002346400000000415</v>
       </c>
       <c r="Y52" t="n">
         <v>9</v>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.002114500000004682</v>
+        <v>0.003072400000000641</v>
       </c>
       <c r="Y53" t="n">
         <v>8</v>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.003006200000001513</v>
+        <v>0.002113199999996596</v>
       </c>
       <c r="Y54" t="n">
         <v>8</v>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.003208800000003009</v>
+        <v>0.003107200000002308</v>
       </c>
       <c r="Y55" t="n">
         <v>13</v>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.002391099999996982</v>
+        <v>0.002382500000003063</v>
       </c>
       <c r="Y56" t="n">
         <v>9</v>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.002170400000004236</v>
+        <v>0.003092500000001053</v>
       </c>
       <c r="Y57" t="n">
         <v>8</v>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.002141099999995788</v>
+        <v>0.002317800000000148</v>
       </c>
       <c r="Y58" t="n">
         <v>8</v>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.002038399999996443</v>
+        <v>0.002562300000001017</v>
       </c>
       <c r="Y59" t="n">
         <v>7</v>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.002220200000003558</v>
+        <v>0.002014500000001362</v>
       </c>
       <c r="Y60" t="n">
         <v>8</v>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.003012699999999313</v>
+        <v>0.002134900000001494</v>
       </c>
       <c r="Y61" t="n">
         <v>8</v>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.002149299999999243</v>
+        <v>0.001985700000005863</v>
       </c>
       <c r="Y62" t="n">
         <v>8</v>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.002139799999994807</v>
+        <v>0.00321830000000034</v>
       </c>
       <c r="Y63" t="n">
         <v>8</v>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.001915900000000192</v>
+        <v>0.001774400000002174</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.002374599999996008</v>
+        <v>0.002239800000005232</v>
       </c>
       <c r="Y65" t="n">
         <v>9</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.00309779999999904</v>
+        <v>0.003182999999999936</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.002149699999996812</v>
+        <v>0.0020276999999993</v>
       </c>
       <c r="Y67" t="n">
         <v>8</v>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.002087500000001796</v>
+        <v>0.002550599999999292</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.002873700000002088</v>
+        <v>0.00268190000000601</v>
       </c>
       <c r="Y69" t="n">
         <v>11</v>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.002110099999995896</v>
+        <v>0.002025099999997337</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.002426599999999723</v>
+        <v>0.002226900000003695</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.005434100000002218</v>
+        <v>0.006147900000001982</v>
       </c>
       <c r="Y72" t="n">
         <v>23</v>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.002222700000004352</v>
+        <v>0.001981100000001845</v>
       </c>
       <c r="Y73" t="n">
         <v>8</v>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.002220300000004727</v>
+        <v>0.002468999999997834</v>
       </c>
       <c r="Y74" t="n">
         <v>8</v>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.002464100000004521</v>
+        <v>0.002195200000002728</v>
       </c>
       <c r="Y75" t="n">
         <v>9</v>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.001889900000001887</v>
+        <v>0.001915199999999118</v>
       </c>
       <c r="Y76" t="n">
         <v>7</v>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.002128300000002525</v>
+        <v>0.00207319999999811</v>
       </c>
       <c r="Y77" t="n">
         <v>8</v>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.002397999999999456</v>
+        <v>0.002240000000000464</v>
       </c>
       <c r="Y78" t="n">
         <v>9</v>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.003253800000003082</v>
+        <v>0.003237599999998508</v>
       </c>
       <c r="Y79" t="n">
         <v>13</v>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.00203210000000098</v>
+        <v>0.001801000000000386</v>
       </c>
       <c r="Y80" t="n">
         <v>7</v>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.002314800000000616</v>
+        <v>0.003163100000001862</v>
       </c>
       <c r="Y81" t="n">
         <v>9</v>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.003654199999999719</v>
+        <v>0.00254319999999808</v>
       </c>
       <c r="Y82" t="n">
         <v>10</v>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.002224900000001639</v>
+        <v>0.003128799999998932</v>
       </c>
       <c r="Y83" t="n">
         <v>8</v>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.002891500000004044</v>
+        <v>0.002007200000001319</v>
       </c>
       <c r="Y84" t="n">
         <v>8</v>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.001900900000002537</v>
+        <v>0.001761200000004237</v>
       </c>
       <c r="Y85" t="n">
         <v>7</v>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.001883399999996982</v>
+        <v>0.001787800000002449</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.002451900000004059</v>
+        <v>0.002180299999999136</v>
       </c>
       <c r="Y87" t="n">
         <v>9</v>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.002096399999999221</v>
+        <v>0.003535999999996875</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.005206100000002323</v>
+        <v>0.004148999999998182</v>
       </c>
       <c r="Y89" t="n">
         <v>19</v>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.002329000000003134</v>
+        <v>0.003756599999995558</v>
       </c>
       <c r="Y90" t="n">
         <v>9</v>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.003489299999998252</v>
+        <v>0.002444500000002847</v>
       </c>
       <c r="Y91" t="n">
         <v>9</v>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.002099199999996415</v>
+        <v>0.001985499999996421</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.003032599999997387</v>
+        <v>0.002085299999997403</v>
       </c>
       <c r="Y93" t="n">
         <v>8</v>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.005043499999999312</v>
+        <v>0.005069900000002292</v>
       </c>
       <c r="Y94" t="n">
         <v>22</v>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.003027899999999306</v>
+        <v>0.002470000000002415</v>
       </c>
       <c r="Y95" t="n">
         <v>10</v>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.003633499999999401</v>
+        <v>0.003395599999997501</v>
       </c>
       <c r="Y96" t="n">
         <v>15</v>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.002675699999997505</v>
+        <v>0.002041599999998311</v>
       </c>
       <c r="Y97" t="n">
         <v>8</v>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.00211869999999692</v>
+        <v>0.002023099999995281</v>
       </c>
       <c r="Y98" t="n">
         <v>8</v>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.006434800000000962</v>
+        <v>0.007604499999999348</v>
       </c>
       <c r="Y99" t="n">
         <v>23</v>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.003307800000001748</v>
+        <v>0.003891799999998113</v>
       </c>
       <c r="Y100" t="n">
         <v>13</v>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.003424400000000105</v>
+        <v>0.002490200000003995</v>
       </c>
       <c r="Y101" t="n">
         <v>10</v>

--- a/tests/test1/d20/ЛМ, 0.3.xlsx
+++ b/tests/test1/d20/ЛМ, 0.3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.00291599999999903</v>
+        <v>0.002709800000005202</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.002648700000001725</v>
+        <v>0.002678599999995868</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.002041399999995974</v>
+        <v>0.002190099999992867</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.002602700000004177</v>
+        <v>0.002678600000010078</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.004658900000002575</v>
+        <v>0.00243229999999528</v>
       </c>
       <c r="Y6" t="n">
         <v>9</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.002078599999997266</v>
+        <v>0.002164000000007604</v>
       </c>
       <c r="Y7" t="n">
         <v>8</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.004502899999998533</v>
+        <v>0.00411700000000792</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.001984600000000114</v>
+        <v>0.002367500000005407</v>
       </c>
       <c r="Y9" t="n">
         <v>8</v>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.00657910000000328</v>
+        <v>0.007322100000010323</v>
       </c>
       <c r="Y10" t="n">
         <v>24</v>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.001820299999998554</v>
+        <v>0.001902799999996319</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.003117099999997208</v>
+        <v>0.003174900000004754</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.001997600000002819</v>
+        <v>0.002148899999994569</v>
       </c>
       <c r="Y13" t="n">
         <v>8</v>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.002099000000001183</v>
+        <v>0.002654699999993682</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.002219599999996547</v>
+        <v>0.002463199999994004</v>
       </c>
       <c r="Y15" t="n">
         <v>9</v>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.002419699999997249</v>
+        <v>0.002770800000007512</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.002075400000002503</v>
+        <v>0.00221700000000169</v>
       </c>
       <c r="Y17" t="n">
         <v>8</v>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.002379599999997595</v>
+        <v>0.002132900000006543</v>
       </c>
       <c r="Y18" t="n">
         <v>8</v>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.003276900000003025</v>
+        <v>0.002190499999997542</v>
       </c>
       <c r="Y19" t="n">
         <v>8</v>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.002825200000003747</v>
+        <v>0.002431900000004816</v>
       </c>
       <c r="Y20" t="n">
         <v>9</v>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.003967899999999247</v>
+        <v>0.004057500000001824</v>
       </c>
       <c r="Y21" t="n">
         <v>8</v>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.005459700000002954</v>
+        <v>0.002949699999987843</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.002578800000001991</v>
+        <v>0.00250830000000235</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.002332899999998972</v>
+        <v>0.002189700000002404</v>
       </c>
       <c r="Y24" t="n">
         <v>8</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.003949500000004491</v>
+        <v>0.002897400000009043</v>
       </c>
       <c r="Y25" t="n">
         <v>11</v>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.002930599999999117</v>
+        <v>0.003182499999994093</v>
       </c>
       <c r="Y26" t="n">
         <v>11</v>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.004144500000002438</v>
+        <v>0.004501000000004751</v>
       </c>
       <c r="Y27" t="n">
         <v>13</v>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.004019900000002963</v>
+        <v>0.002259699999996201</v>
       </c>
       <c r="Y28" t="n">
         <v>8</v>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.006020200000001807</v>
+        <v>0.004766799999998739</v>
       </c>
       <c r="Y29" t="n">
         <v>10</v>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.002688300000002641</v>
+        <v>0.002880200000006994</v>
       </c>
       <c r="Y30" t="n">
         <v>10</v>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.004013299999996889</v>
+        <v>0.002533499999998412</v>
       </c>
       <c r="Y31" t="n">
         <v>9</v>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.00430250000000143</v>
+        <v>0.004091200000004847</v>
       </c>
       <c r="Y32" t="n">
         <v>9</v>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.00232859999999846</v>
+        <v>0.0025032000000067</v>
       </c>
       <c r="Y33" t="n">
         <v>9</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.003765500000000088</v>
+        <v>0.004494000000008214</v>
       </c>
       <c r="Y34" t="n">
         <v>9</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.003847700000001453</v>
+        <v>0.002338000000008833</v>
       </c>
       <c r="Y35" t="n">
         <v>8</v>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.0021290000000036</v>
+        <v>0.001959599999992179</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.002286400000002686</v>
+        <v>0.002538700000002336</v>
       </c>
       <c r="Y37" t="n">
         <v>9</v>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.003710600000005115</v>
+        <v>0.00450379999999484</v>
       </c>
       <c r="Y38" t="n">
         <v>15</v>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.002500200000000063</v>
+        <v>0.002498399999993239</v>
       </c>
       <c r="Y39" t="n">
         <v>9</v>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.002947300000002429</v>
+        <v>0.002657900000002655</v>
       </c>
       <c r="Y40" t="n">
         <v>10</v>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.002836700000003134</v>
+        <v>0.002936300000001779</v>
       </c>
       <c r="Y41" t="n">
         <v>11</v>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.002270299999999281</v>
+        <v>0.002163800000005267</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.00209650000000039</v>
+        <v>0.00221080000000029</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.00356000000000023</v>
+        <v>0.002647899999999481</v>
       </c>
       <c r="Y44" t="n">
         <v>10</v>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.00385270000000304</v>
+        <v>0.002294500000004973</v>
       </c>
       <c r="Y45" t="n">
         <v>8</v>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.004352400000001921</v>
+        <v>0.002149900000006255</v>
       </c>
       <c r="Y46" t="n">
         <v>8</v>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.00393929999999898</v>
+        <v>0.003690000000005966</v>
       </c>
       <c r="Y47" t="n">
         <v>8</v>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.004072200000003079</v>
+        <v>0.004403600000003394</v>
       </c>
       <c r="Y48" t="n">
         <v>18</v>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.002615599999998608</v>
+        <v>0.003907999999995582</v>
       </c>
       <c r="Y49" t="n">
         <v>8</v>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.00213380000000285</v>
+        <v>0.001984800000002451</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.002184300000003248</v>
+        <v>0.002512199999998188</v>
       </c>
       <c r="Y51" t="n">
         <v>8</v>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.002346400000000415</v>
+        <v>0.002582000000003859</v>
       </c>
       <c r="Y52" t="n">
         <v>9</v>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.003072400000000641</v>
+        <v>0.002188099999997917</v>
       </c>
       <c r="Y53" t="n">
         <v>8</v>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.002113199999996596</v>
+        <v>0.002253500000009012</v>
       </c>
       <c r="Y54" t="n">
         <v>8</v>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.003107200000002308</v>
+        <v>0.003360700000001771</v>
       </c>
       <c r="Y55" t="n">
         <v>13</v>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.002382500000003063</v>
+        <v>0.002583200000003671</v>
       </c>
       <c r="Y56" t="n">
         <v>9</v>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.003092500000001053</v>
+        <v>0.002200100000010252</v>
       </c>
       <c r="Y57" t="n">
         <v>8</v>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.002317800000000148</v>
+        <v>0.003514600000002588</v>
       </c>
       <c r="Y58" t="n">
         <v>8</v>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.002562300000001017</v>
+        <v>0.001958299999998303</v>
       </c>
       <c r="Y59" t="n">
         <v>7</v>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.002014500000001362</v>
+        <v>0.002607099999991647</v>
       </c>
       <c r="Y60" t="n">
         <v>8</v>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.002134900000001494</v>
+        <v>0.002190299999995204</v>
       </c>
       <c r="Y61" t="n">
         <v>8</v>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.001985700000005863</v>
+        <v>0.002233899999993127</v>
       </c>
       <c r="Y62" t="n">
         <v>8</v>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.00321830000000034</v>
+        <v>0.002229599999992615</v>
       </c>
       <c r="Y63" t="n">
         <v>8</v>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.001774400000002174</v>
+        <v>0.002187999999989643</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.002239800000005232</v>
+        <v>0.004072299999990037</v>
       </c>
       <c r="Y65" t="n">
         <v>9</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.003182999999999936</v>
+        <v>0.002647699999997144</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.0020276999999993</v>
+        <v>0.003956500000001029</v>
       </c>
       <c r="Y67" t="n">
         <v>8</v>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.002550599999999292</v>
+        <v>0.002282499999992638</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.00268190000000601</v>
+        <v>0.003389600000005544</v>
       </c>
       <c r="Y69" t="n">
         <v>11</v>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.002025099999997337</v>
+        <v>0.002247900000000413</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.002226900000003695</v>
+        <v>0.002404699999999593</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.006147900000001982</v>
+        <v>0.006220900000002416</v>
       </c>
       <c r="Y72" t="n">
         <v>23</v>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.001981100000001845</v>
+        <v>0.00303519999999935</v>
       </c>
       <c r="Y73" t="n">
         <v>8</v>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.002468999999997834</v>
+        <v>0.002159900000009429</v>
       </c>
       <c r="Y74" t="n">
         <v>8</v>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.002195200000002728</v>
+        <v>0.002419700000004354</v>
       </c>
       <c r="Y75" t="n">
         <v>9</v>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.001915199999999118</v>
+        <v>0.001988400000001889</v>
       </c>
       <c r="Y76" t="n">
         <v>7</v>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.00207319999999811</v>
+        <v>0.002199500000003241</v>
       </c>
       <c r="Y77" t="n">
         <v>8</v>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.002240000000000464</v>
+        <v>0.003488900000007789</v>
       </c>
       <c r="Y78" t="n">
         <v>9</v>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.003237599999998508</v>
+        <v>0.003449000000003366</v>
       </c>
       <c r="Y79" t="n">
         <v>13</v>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.001801000000000386</v>
+        <v>0.002005600000003938</v>
       </c>
       <c r="Y80" t="n">
         <v>7</v>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.003163100000001862</v>
+        <v>0.002644799999998781</v>
       </c>
       <c r="Y81" t="n">
         <v>9</v>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.00254319999999808</v>
+        <v>0.004376600000000508</v>
       </c>
       <c r="Y82" t="n">
         <v>10</v>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.003128799999998932</v>
+        <v>0.00214920000000518</v>
       </c>
       <c r="Y83" t="n">
         <v>8</v>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.002007200000001319</v>
+        <v>0.002795700000007173</v>
       </c>
       <c r="Y84" t="n">
         <v>8</v>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.001761200000004237</v>
+        <v>0.001924799999997617</v>
       </c>
       <c r="Y85" t="n">
         <v>7</v>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.001787800000002449</v>
+        <v>0.001909200000000055</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.002180299999999136</v>
+        <v>0.002449299999994992</v>
       </c>
       <c r="Y87" t="n">
         <v>9</v>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.003535999999996875</v>
+        <v>0.002150000000000318</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.004148999999998182</v>
+        <v>0.006202200000004154</v>
       </c>
       <c r="Y89" t="n">
         <v>19</v>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.003756599999995558</v>
+        <v>0.002399300000007543</v>
       </c>
       <c r="Y90" t="n">
         <v>9</v>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.002444500000002847</v>
+        <v>0.003149100000001681</v>
       </c>
       <c r="Y91" t="n">
         <v>9</v>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.001985499999996421</v>
+        <v>0.002153800000002093</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.002085299999997403</v>
+        <v>0.003808100000000536</v>
       </c>
       <c r="Y93" t="n">
         <v>8</v>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.005069900000002292</v>
+        <v>0.00526520000001085</v>
       </c>
       <c r="Y94" t="n">
         <v>22</v>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.002470000000002415</v>
+        <v>0.003679800000000455</v>
       </c>
       <c r="Y95" t="n">
         <v>10</v>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.003395599999997501</v>
+        <v>0.003823300000007634</v>
       </c>
       <c r="Y96" t="n">
         <v>15</v>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.002041599999998311</v>
+        <v>0.003503299999991327</v>
       </c>
       <c r="Y97" t="n">
         <v>8</v>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.002023099999995281</v>
+        <v>0.002185400000001891</v>
       </c>
       <c r="Y98" t="n">
         <v>8</v>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.007604499999999348</v>
+        <v>0.007246899999998391</v>
       </c>
       <c r="Y99" t="n">
         <v>23</v>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.003891799999998113</v>
+        <v>0.003326399999991736</v>
       </c>
       <c r="Y100" t="n">
         <v>13</v>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.002490200000003995</v>
+        <v>0.002706200000005765</v>
       </c>
       <c r="Y101" t="n">
         <v>10</v>

--- a/tests/test1/d20/ЛМ, 0.3.xlsx
+++ b/tests/test1/d20/ЛМ, 0.3.xlsx
@@ -582,13 +582,13 @@
         <v>359.9304048525396</v>
       </c>
       <c r="F2" t="n">
-        <v>20.18884011700351</v>
+        <v>20.18884011700352</v>
       </c>
       <c r="G2" t="n">
         <v>98.53359991102612</v>
       </c>
       <c r="H2" t="n">
-        <v>11.80055649013126</v>
+        <v>11.80055649013127</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -615,22 +615,22 @@
         <v>21.65350675814789</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0156520524167789</v>
+        <v>0.01565205241677804</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2421336836879912</v>
+        <v>0.242133683687952</v>
       </c>
       <c r="S2" t="n">
-        <v>0.212056336417311</v>
+        <v>0.2120563364172764</v>
       </c>
       <c r="T2" t="n">
-        <v>0.05517649281018633</v>
+        <v>0.05517649281018724</v>
       </c>
       <c r="U2" t="n">
-        <v>0.08987630022195336</v>
+        <v>0.08987630022195331</v>
       </c>
       <c r="V2" t="n">
-        <v>0.09652418298512472</v>
+        <v>0.09652418298512566</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.002709800000005202</v>
+        <v>0.002589700000015682</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -667,10 +667,10 @@
         <v>19.72778599762976</v>
       </c>
       <c r="G3" t="n">
-        <v>75.06410097747903</v>
+        <v>75.06410097747904</v>
       </c>
       <c r="H3" t="n">
-        <v>11.40561491902009</v>
+        <v>11.40561491902008</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -697,22 +697,22 @@
         <v>25.16456515589176</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01553096940390543</v>
+        <v>0.0155309694039051</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2254995233806552</v>
+        <v>0.2254995233806346</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1955627079271568</v>
+        <v>0.1955627079271385</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1005309610749709</v>
+        <v>0.1005309610749675</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08946265143091846</v>
+        <v>0.08946265143091854</v>
       </c>
       <c r="V3" t="n">
-        <v>0.09463509948768287</v>
+        <v>0.09463509948768387</v>
       </c>
       <c r="W3" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.002678599999995868</v>
+        <v>0.002095599999989872</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -749,7 +749,7 @@
         <v>20.13907264842823</v>
       </c>
       <c r="G4" t="n">
-        <v>82.39847392986019</v>
+        <v>82.39847392986024</v>
       </c>
       <c r="H4" t="n">
         <v>3.242760314980614</v>
@@ -776,25 +776,25 @@
         <v>15.61549921812454</v>
       </c>
       <c r="P4" t="n">
-        <v>18.72874092536255</v>
+        <v>18.72874092536254</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01389107841303676</v>
+        <v>0.01389107841303717</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1517333853599961</v>
+        <v>0.1517333853600011</v>
       </c>
       <c r="S4" t="n">
-        <v>0.07262368801524736</v>
+        <v>0.07262368801525168</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1762374543416303</v>
+        <v>0.1762374543416366</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09493849513074286</v>
+        <v>0.09493849513074298</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1742487709795218</v>
+        <v>0.1742487709795238</v>
       </c>
       <c r="W4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.002190099999992867</v>
+        <v>0.001678800000007641</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -828,10 +828,10 @@
         <v>0.06949132035671984</v>
       </c>
       <c r="F5" t="n">
-        <v>19.72169387524814</v>
+        <v>19.72169387524815</v>
       </c>
       <c r="G5" t="n">
-        <v>99.6040286554358</v>
+        <v>99.60402865543574</v>
       </c>
       <c r="H5" t="n">
         <v>11.20821126686061</v>
@@ -855,28 +855,28 @@
         <v>21.20345840520746</v>
       </c>
       <c r="O5" t="n">
-        <v>44.20726744229655</v>
+        <v>44.20726744229654</v>
       </c>
       <c r="P5" t="n">
-        <v>20.73229565841958</v>
+        <v>20.73229565841959</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0149281789923244</v>
+        <v>0.01492817899232467</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2272461800834618</v>
+        <v>0.2272461800834751</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1971532769514427</v>
+        <v>0.1971532769514534</v>
       </c>
       <c r="T5" t="n">
-        <v>0.05381744531236931</v>
+        <v>0.05381744531236981</v>
       </c>
       <c r="U5" t="n">
-        <v>0.09401183223305457</v>
+        <v>0.09401183223305458</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1192567530251773</v>
+        <v>0.1192567530251818</v>
       </c>
       <c r="W5" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.002678600000010078</v>
+        <v>0.002012399999983927</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -916,7 +916,7 @@
         <v>174.2638585737357</v>
       </c>
       <c r="H6" t="n">
-        <v>9.610804393510886</v>
+        <v>9.610804393510888</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -937,28 +937,28 @@
         <v>6.41396481681925</v>
       </c>
       <c r="O6" t="n">
-        <v>21.51511445466188</v>
+        <v>21.51511445466187</v>
       </c>
       <c r="P6" t="n">
-        <v>6.335483647471985</v>
+        <v>6.335483647471986</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01145444629738102</v>
+        <v>0.01145444629738028</v>
       </c>
       <c r="R6" t="n">
-        <v>0.07931167204737301</v>
+        <v>0.07931167204737126</v>
       </c>
       <c r="S6" t="n">
-        <v>0.04076999995735624</v>
+        <v>0.04076999995735275</v>
       </c>
       <c r="T6" t="n">
-        <v>0.07325133414873908</v>
+        <v>0.07325133414873548</v>
       </c>
       <c r="U6" t="n">
         <v>0.08468292704675558</v>
       </c>
       <c r="V6" t="n">
-        <v>0.04917170927931584</v>
+        <v>0.04917170927931609</v>
       </c>
       <c r="W6" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.00243229999999528</v>
+        <v>0.001950899999997091</v>
       </c>
       <c r="Y6" t="n">
         <v>9</v>
@@ -992,10 +992,10 @@
         <v>359.9515914710835</v>
       </c>
       <c r="F7" t="n">
-        <v>20.18372981267322</v>
+        <v>20.18372981267321</v>
       </c>
       <c r="G7" t="n">
-        <v>39.93516882085529</v>
+        <v>39.93516882085528</v>
       </c>
       <c r="H7" t="n">
         <v>13.7242472192034</v>
@@ -1019,28 +1019,28 @@
         <v>31.91172483743855</v>
       </c>
       <c r="O7" t="n">
-        <v>21.22181829913009</v>
+        <v>21.2218182991301</v>
       </c>
       <c r="P7" t="n">
-        <v>32.39202215789153</v>
+        <v>32.39202215789152</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01653455412819887</v>
+        <v>0.01653455412819881</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2400371327627451</v>
+        <v>0.24003713276274</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1709115766060588</v>
+        <v>0.1709115766060552</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2400291689332815</v>
+        <v>0.240029168933278</v>
       </c>
       <c r="U7" t="n">
-        <v>0.08633849198861222</v>
+        <v>0.08633849198861249</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0846702442686281</v>
+        <v>0.08467024426863481</v>
       </c>
       <c r="W7" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.002164000000007604</v>
+        <v>0.001641400000011117</v>
       </c>
       <c r="Y7" t="n">
         <v>8</v>
@@ -1080,7 +1080,7 @@
         <v>161.3587331966832</v>
       </c>
       <c r="H8" t="n">
-        <v>7.007177625142767</v>
+        <v>7.007177625142768</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>10.07402923721298</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01250222960734873</v>
+        <v>0.01250222960734895</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1055261610968412</v>
+        <v>0.1055261610968384</v>
       </c>
       <c r="S8" t="n">
-        <v>0.05604930269768938</v>
+        <v>0.05604930269768987</v>
       </c>
       <c r="T8" t="n">
-        <v>0.08381047546541817</v>
+        <v>0.08381047546541937</v>
       </c>
       <c r="U8" t="n">
-        <v>0.08355849257825726</v>
+        <v>0.08355849257825718</v>
       </c>
       <c r="V8" t="n">
-        <v>0.06024037984140012</v>
+        <v>0.06024037984140044</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.00411700000000792</v>
+        <v>0.001843600000000833</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
@@ -1183,28 +1183,28 @@
         <v>32.13470811956061</v>
       </c>
       <c r="O9" t="n">
-        <v>8.348305173364954</v>
+        <v>8.348305173364942</v>
       </c>
       <c r="P9" t="n">
         <v>31.28282349533573</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.01477469982652192</v>
+        <v>0.01477469982652157</v>
       </c>
       <c r="R9" t="n">
-        <v>0.2487022514091773</v>
+        <v>0.2487022514091793</v>
       </c>
       <c r="S9" t="n">
-        <v>0.07876600005904744</v>
+        <v>0.0787660000590447</v>
       </c>
       <c r="T9" t="n">
-        <v>0.4035987259410762</v>
+        <v>0.4035987259410616</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08539590884252456</v>
+        <v>0.08539590884252458</v>
       </c>
       <c r="V9" t="n">
-        <v>0.1442657828941594</v>
+        <v>0.1442657828941599</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.002367500000005407</v>
+        <v>0.001789399999978514</v>
       </c>
       <c r="Y9" t="n">
         <v>8</v>
@@ -1238,13 +1238,13 @@
         <v>0.005543747152213656</v>
       </c>
       <c r="F10" t="n">
-        <v>20.03592139114847</v>
+        <v>20.03592139114846</v>
       </c>
       <c r="G10" t="n">
         <v>157.2144614476969</v>
       </c>
       <c r="H10" t="n">
-        <v>14.65142757365306</v>
+        <v>14.65142757365305</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1265,28 +1265,28 @@
         <v>8.056033186416919</v>
       </c>
       <c r="O10" t="n">
-        <v>81.38021396284799</v>
+        <v>81.38021396284802</v>
       </c>
       <c r="P10" t="n">
-        <v>8.072672929529885</v>
+        <v>8.07267292952988</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01553004523760453</v>
+        <v>0.01553004523764284</v>
       </c>
       <c r="R10" t="n">
-        <v>0.3448727576422905</v>
+        <v>0.3448727576435503</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1785710127883716</v>
+        <v>0.1785710127890155</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2617430839951952</v>
+        <v>0.2617430839961514</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09864008124303249</v>
+        <v>0.09864008124303227</v>
       </c>
       <c r="V10" t="n">
-        <v>0.01160041926965644</v>
+        <v>0.01160041926965382</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.007322100000010323</v>
+        <v>0.004333000000002585</v>
       </c>
       <c r="Y10" t="n">
         <v>24</v>
@@ -1326,7 +1326,7 @@
         <v>1.94863189636093</v>
       </c>
       <c r="H11" t="n">
-        <v>8.816241173859289</v>
+        <v>8.816241173859295</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1353,22 +1353,22 @@
         <v>28.20984259115506</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.01230160086685279</v>
+        <v>0.01230160086685289</v>
       </c>
       <c r="R11" t="n">
-        <v>0.3830795884289481</v>
+        <v>0.3830795884289535</v>
       </c>
       <c r="S11" t="n">
-        <v>0.04182181079805373</v>
+        <v>0.04182181079805396</v>
       </c>
       <c r="T11" t="n">
-        <v>0.6086161126551105</v>
+        <v>0.6086161126551213</v>
       </c>
       <c r="U11" t="n">
-        <v>0.09423230780902646</v>
+        <v>0.09423230780902647</v>
       </c>
       <c r="V11" t="n">
-        <v>0.0637977962706904</v>
+        <v>0.06379779627068892</v>
       </c>
       <c r="W11" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.001902799999996319</v>
+        <v>0.001477800000003526</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1405,10 +1405,10 @@
         <v>20.013459991005</v>
       </c>
       <c r="G12" t="n">
-        <v>138.9418748270649</v>
+        <v>138.941874827065</v>
       </c>
       <c r="H12" t="n">
-        <v>3.270319642682156</v>
+        <v>3.270319642682157</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1432,25 +1432,25 @@
         <v>14.52372091265605</v>
       </c>
       <c r="P12" t="n">
-        <v>14.91455042951937</v>
+        <v>14.91455042951936</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01287092481624126</v>
+        <v>0.01287092481624075</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1283589964344327</v>
+        <v>0.1283589964344334</v>
       </c>
       <c r="S12" t="n">
-        <v>0.05592646507642227</v>
+        <v>0.05592646507642103</v>
       </c>
       <c r="T12" t="n">
-        <v>0.1601846028805705</v>
+        <v>0.1601846028805632</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08006694350650903</v>
+        <v>0.08006694350650902</v>
       </c>
       <c r="V12" t="n">
-        <v>0.02592662920919389</v>
+        <v>0.02592662920919679</v>
       </c>
       <c r="W12" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.003174900000004754</v>
+        <v>0.001783299999999599</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
@@ -1487,10 +1487,10 @@
         <v>19.66330301160885</v>
       </c>
       <c r="G13" t="n">
-        <v>31.61239024803017</v>
+        <v>31.61239024803019</v>
       </c>
       <c r="H13" t="n">
-        <v>3.15612727623301</v>
+        <v>3.156127276233008</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1517,22 +1517,22 @@
         <v>20.51727453079338</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01293034107857129</v>
+        <v>0.01293034107857079</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1802062221193552</v>
+        <v>0.1802062221193536</v>
       </c>
       <c r="S13" t="n">
-        <v>0.05333257953605468</v>
+        <v>0.05333257953605328</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2778148574365303</v>
+        <v>0.2778148574365167</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08665861630723616</v>
+        <v>0.0866586163072362</v>
       </c>
       <c r="V13" t="n">
-        <v>0.1335241988864468</v>
+        <v>0.1335241988864484</v>
       </c>
       <c r="W13" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.002148899999994569</v>
+        <v>0.0017285000000129</v>
       </c>
       <c r="Y13" t="n">
         <v>8</v>
@@ -1566,7 +1566,7 @@
         <v>0.02434616732801004</v>
       </c>
       <c r="F14" t="n">
-        <v>20.2753900472192</v>
+        <v>20.27539004721921</v>
       </c>
       <c r="G14" t="n">
         <v>27.68691373423616</v>
@@ -1596,25 +1596,25 @@
         <v>14.62462957785932</v>
       </c>
       <c r="P14" t="n">
-        <v>31.68451226207505</v>
+        <v>31.68451226207506</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.01606324846292553</v>
+        <v>0.01606324846292573</v>
       </c>
       <c r="R14" t="n">
-        <v>0.2298283736987221</v>
+        <v>0.2298283736987329</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1219233126686202</v>
+        <v>0.1219233126686261</v>
       </c>
       <c r="T14" t="n">
-        <v>0.2964574221607889</v>
+        <v>0.2964574221607971</v>
       </c>
       <c r="U14" t="n">
-        <v>0.09063111701459983</v>
+        <v>0.0906311170145999</v>
       </c>
       <c r="V14" t="n">
-        <v>0.1214485518732368</v>
+        <v>0.1214485518732382</v>
       </c>
       <c r="W14" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.002654699999993682</v>
+        <v>0.001677400000005491</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1651,7 +1651,7 @@
         <v>20.03505739663508</v>
       </c>
       <c r="G15" t="n">
-        <v>139.86805948108</v>
+        <v>139.8680594810799</v>
       </c>
       <c r="H15" t="n">
         <v>5.864025781190047</v>
@@ -1681,22 +1681,22 @@
         <v>13.32297460824445</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.01350940408187964</v>
+        <v>0.01350940408187992</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1339721516842143</v>
+        <v>0.1339721516842093</v>
       </c>
       <c r="S15" t="n">
-        <v>0.07675471669562055</v>
+        <v>0.07675471669561898</v>
       </c>
       <c r="T15" t="n">
-        <v>0.08462801343081773</v>
+        <v>0.08462801343082142</v>
       </c>
       <c r="U15" t="n">
         <v>0.07896416031792489</v>
       </c>
       <c r="V15" t="n">
-        <v>0.02110130249659551</v>
+        <v>0.02110130249659737</v>
       </c>
       <c r="W15" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.002463199999994004</v>
+        <v>0.002156899999988582</v>
       </c>
       <c r="Y15" t="n">
         <v>9</v>
@@ -1730,7 +1730,7 @@
         <v>0.05581877082292223</v>
       </c>
       <c r="F16" t="n">
-        <v>19.9069061882421</v>
+        <v>19.90690618824211</v>
       </c>
       <c r="G16" t="n">
         <v>92.37719446900327</v>
@@ -1763,22 +1763,22 @@
         <v>22.99715910545274</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.01536981914543851</v>
+        <v>0.01536981914543838</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2427084162578594</v>
+        <v>0.2427084162578687</v>
       </c>
       <c r="S16" t="n">
-        <v>0.2212609077025607</v>
+        <v>0.221260907702566</v>
       </c>
       <c r="T16" t="n">
-        <v>0.05840198822053214</v>
+        <v>0.05840198822053204</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09347514984448607</v>
+        <v>0.09347514984448593</v>
       </c>
       <c r="V16" t="n">
-        <v>0.02687974453898899</v>
+        <v>0.02687974453898837</v>
       </c>
       <c r="W16" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.002770800000007512</v>
+        <v>0.002033000000011498</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
@@ -1818,7 +1818,7 @@
         <v>152.9660842593972</v>
       </c>
       <c r="H17" t="n">
-        <v>5.143163240929132</v>
+        <v>5.143163240929136</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1842,25 +1842,25 @@
         <v>18.56466234354318</v>
       </c>
       <c r="P17" t="n">
-        <v>12.50401653781812</v>
+        <v>12.50401653781811</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.01275547160570353</v>
+        <v>0.01275547160570388</v>
       </c>
       <c r="R17" t="n">
-        <v>0.1148286679186012</v>
+        <v>0.1148286679185992</v>
       </c>
       <c r="S17" t="n">
-        <v>0.05735694215053111</v>
+        <v>0.0573569421505324</v>
       </c>
       <c r="T17" t="n">
-        <v>0.1158336733733546</v>
+        <v>0.1158336733733594</v>
       </c>
       <c r="U17" t="n">
-        <v>0.09014690172547818</v>
+        <v>0.09014690172547821</v>
       </c>
       <c r="V17" t="n">
-        <v>0.01276561473885234</v>
+        <v>0.01276561473885132</v>
       </c>
       <c r="W17" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.00221700000000169</v>
+        <v>0.001702499999993279</v>
       </c>
       <c r="Y17" t="n">
         <v>8</v>
@@ -1897,10 +1897,10 @@
         <v>19.62414722609955</v>
       </c>
       <c r="G18" t="n">
-        <v>40.32553358524907</v>
+        <v>40.32553358524908</v>
       </c>
       <c r="H18" t="n">
-        <v>8.92551141520144</v>
+        <v>8.925511415201434</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1924,25 +1924,25 @@
         <v>17.85148322773509</v>
       </c>
       <c r="P18" t="n">
-        <v>26.44663275422066</v>
+        <v>26.44663275422065</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.01509827249620019</v>
+        <v>0.01509827249619988</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1928278212664218</v>
+        <v>0.1928278212664223</v>
       </c>
       <c r="S18" t="n">
-        <v>0.1134779050483913</v>
+        <v>0.1134779050483891</v>
       </c>
       <c r="T18" t="n">
-        <v>0.2108928771452565</v>
+        <v>0.2108928771452506</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07672343255709729</v>
+        <v>0.07672343255709725</v>
       </c>
       <c r="V18" t="n">
-        <v>0.1537080381264825</v>
+        <v>0.1537080381264843</v>
       </c>
       <c r="W18" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.002132900000006543</v>
+        <v>0.001778400000006286</v>
       </c>
       <c r="Y18" t="n">
         <v>8</v>
@@ -1976,13 +1976,13 @@
         <v>359.9469887032599</v>
       </c>
       <c r="F19" t="n">
-        <v>19.92460399823412</v>
+        <v>19.92460399823413</v>
       </c>
       <c r="G19" t="n">
         <v>52.36615600067083</v>
       </c>
       <c r="H19" t="n">
-        <v>9.520171530214281</v>
+        <v>9.520171530214288</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2006,25 +2006,25 @@
         <v>22.78220434949401</v>
       </c>
       <c r="P19" t="n">
-        <v>26.33886950421246</v>
+        <v>26.33886950421247</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.01557608918863421</v>
+        <v>0.01557608918863303</v>
       </c>
       <c r="R19" t="n">
-        <v>0.2042676795129366</v>
+        <v>0.2042676795129352</v>
       </c>
       <c r="S19" t="n">
-        <v>0.1398450965686012</v>
+        <v>0.13984509656859</v>
       </c>
       <c r="T19" t="n">
-        <v>0.1729716844003453</v>
+        <v>0.1729716844003282</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09274364749834467</v>
+        <v>0.09274364749834436</v>
       </c>
       <c r="V19" t="n">
-        <v>0.07353907879907159</v>
+        <v>0.0735390787990744</v>
       </c>
       <c r="W19" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.002190499999997542</v>
+        <v>0.00173219999999219</v>
       </c>
       <c r="Y19" t="n">
         <v>8</v>
@@ -2058,13 +2058,13 @@
         <v>359.9002402560956</v>
       </c>
       <c r="F20" t="n">
-        <v>20.27694208848608</v>
+        <v>20.27694208848607</v>
       </c>
       <c r="G20" t="n">
         <v>116.2712176600757</v>
       </c>
       <c r="H20" t="n">
-        <v>9.295995602936314</v>
+        <v>9.295995602936308</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2085,28 +2085,28 @@
         <v>16.50686888128499</v>
       </c>
       <c r="O20" t="n">
-        <v>41.19985393291858</v>
+        <v>41.19985393291856</v>
       </c>
       <c r="P20" t="n">
-        <v>16.90955249759143</v>
+        <v>16.90955249759142</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.01502380079439118</v>
+        <v>0.01502380079438938</v>
       </c>
       <c r="R20" t="n">
-        <v>0.2028788031333676</v>
+        <v>0.2028788031333205</v>
       </c>
       <c r="S20" t="n">
-        <v>0.1487364464002366</v>
+        <v>0.1487364464001995</v>
       </c>
       <c r="T20" t="n">
-        <v>0.0564200273282506</v>
+        <v>0.05642002732825048</v>
       </c>
       <c r="U20" t="n">
-        <v>0.09189766834671904</v>
+        <v>0.09189766834671911</v>
       </c>
       <c r="V20" t="n">
-        <v>0.1418799316964776</v>
+        <v>0.1418799316964754</v>
       </c>
       <c r="W20" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.002431900000004816</v>
+        <v>0.001929200000006404</v>
       </c>
       <c r="Y20" t="n">
         <v>9</v>
@@ -2140,7 +2140,7 @@
         <v>0.003412555903484843</v>
       </c>
       <c r="F21" t="n">
-        <v>19.87772934621522</v>
+        <v>19.87772934621523</v>
       </c>
       <c r="G21" t="n">
         <v>17.38053518321849</v>
@@ -2170,25 +2170,25 @@
         <v>10.09027217234102</v>
       </c>
       <c r="P21" t="n">
-        <v>31.82221767527337</v>
+        <v>31.82221767527338</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.01530142869224551</v>
+        <v>0.01530142869224554</v>
       </c>
       <c r="R21" t="n">
-        <v>0.2386240999832176</v>
+        <v>0.2386240999832194</v>
       </c>
       <c r="S21" t="n">
-        <v>0.09192767632911387</v>
+        <v>0.09192767632911472</v>
       </c>
       <c r="T21" t="n">
-        <v>0.3688070573652524</v>
+        <v>0.3688070573652556</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08683237204058822</v>
+        <v>0.08683237204058829</v>
       </c>
       <c r="V21" t="n">
-        <v>0.03911777528316784</v>
+        <v>0.03911777528316858</v>
       </c>
       <c r="W21" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.004057500000001824</v>
+        <v>0.002876899999989746</v>
       </c>
       <c r="Y21" t="n">
         <v>8</v>
@@ -2222,13 +2222,13 @@
         <v>0.04084014965382358</v>
       </c>
       <c r="F22" t="n">
-        <v>19.67004657396392</v>
+        <v>19.67004657396393</v>
       </c>
       <c r="G22" t="n">
         <v>106.0426259998329</v>
       </c>
       <c r="H22" t="n">
-        <v>13.44267943119753</v>
+        <v>13.44267943119754</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2252,25 +2252,25 @@
         <v>52.95434786234657</v>
       </c>
       <c r="P22" t="n">
-        <v>20.90755118512239</v>
+        <v>20.9075511851224</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.01507838611492618</v>
+        <v>0.01507838611492875</v>
       </c>
       <c r="R22" t="n">
-        <v>0.2606771557209254</v>
+        <v>0.2606771557210535</v>
       </c>
       <c r="S22" t="n">
-        <v>0.24554096382003</v>
+        <v>0.245540963820148</v>
       </c>
       <c r="T22" t="n">
-        <v>0.06447023134997792</v>
+        <v>0.06447023134999801</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08479872116227301</v>
+        <v>0.08479872116227311</v>
       </c>
       <c r="V22" t="n">
-        <v>0.1098708399150154</v>
+        <v>0.109870839915013</v>
       </c>
       <c r="W22" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.002949699999987843</v>
+        <v>0.002343400000000884</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -2307,10 +2307,10 @@
         <v>20.2820816220415</v>
       </c>
       <c r="G23" t="n">
-        <v>9.186802748780027</v>
+        <v>9.186802748780014</v>
       </c>
       <c r="H23" t="n">
-        <v>6.864132970324667</v>
+        <v>6.864132970324669</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2337,22 +2337,22 @@
         <v>25.91505273487402</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.01318595883359181</v>
+        <v>0.01318595883359182</v>
       </c>
       <c r="R23" t="n">
         <v>0.2722975194350282</v>
       </c>
       <c r="S23" t="n">
-        <v>0.05127311142122617</v>
+        <v>0.05127311142122652</v>
       </c>
       <c r="T23" t="n">
-        <v>0.4415915808843377</v>
+        <v>0.441591580884339</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0911668862487264</v>
+        <v>0.09116688624872633</v>
       </c>
       <c r="V23" t="n">
-        <v>0.238322441818945</v>
+        <v>0.2383224418189456</v>
       </c>
       <c r="W23" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.00250830000000235</v>
+        <v>0.001438500000006115</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2419,19 +2419,19 @@
         <v>26.88418181422626</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.01549027100299703</v>
+        <v>0.01549027100299752</v>
       </c>
       <c r="R24" t="n">
-        <v>0.2020836108577035</v>
+        <v>0.2020836108577049</v>
       </c>
       <c r="S24" t="n">
-        <v>0.1106600427928432</v>
+        <v>0.1106600427928479</v>
       </c>
       <c r="T24" t="n">
-        <v>0.2300338256377362</v>
+        <v>0.230033825637747</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09927559976157471</v>
+        <v>0.09927559976157442</v>
       </c>
       <c r="V24" t="n">
         <v>0.08004633711918466</v>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.002189700000002404</v>
+        <v>0.00562829999998371</v>
       </c>
       <c r="Y24" t="n">
         <v>8</v>
@@ -2468,7 +2468,7 @@
         <v>359.9828035739305</v>
       </c>
       <c r="F25" t="n">
-        <v>19.90103074953779</v>
+        <v>19.90103074953778</v>
       </c>
       <c r="G25" t="n">
         <v>93.08571461969761</v>
@@ -2501,22 +2501,22 @@
         <v>24.55179411535627</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.01577983978718641</v>
+        <v>0.01577983978718633</v>
       </c>
       <c r="R25" t="n">
-        <v>0.2707904433029336</v>
+        <v>0.2707904433029731</v>
       </c>
       <c r="S25" t="n">
-        <v>0.2710960763736764</v>
+        <v>0.2710960763737091</v>
       </c>
       <c r="T25" t="n">
-        <v>0.05249722896294417</v>
+        <v>0.0524972289629445</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08245471487491669</v>
+        <v>0.08245471487491662</v>
       </c>
       <c r="V25" t="n">
-        <v>0.02707239119217025</v>
+        <v>0.02707239119217079</v>
       </c>
       <c r="W25" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.002897400000009043</v>
+        <v>0.002785799999998062</v>
       </c>
       <c r="Y25" t="n">
         <v>11</v>
@@ -2580,25 +2580,25 @@
         <v>37.03089103734855</v>
       </c>
       <c r="P26" t="n">
-        <v>4.891426575524407</v>
+        <v>4.891426575524409</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.01279358726899506</v>
+        <v>0.01279358726899304</v>
       </c>
       <c r="R26" t="n">
-        <v>0.1216273059099859</v>
+        <v>0.121627305909949</v>
       </c>
       <c r="S26" t="n">
-        <v>0.0578295615190196</v>
+        <v>0.0578295615190034</v>
       </c>
       <c r="T26" t="n">
-        <v>0.05113576338106638</v>
+        <v>0.05113576338105682</v>
       </c>
       <c r="U26" t="n">
-        <v>0.08766005172560751</v>
+        <v>0.08766005172560766</v>
       </c>
       <c r="V26" t="n">
-        <v>0.05466207517635453</v>
+        <v>0.05466207517635475</v>
       </c>
       <c r="W26" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.003182499999994093</v>
+        <v>0.002281500000009373</v>
       </c>
       <c r="Y26" t="n">
         <v>11</v>
@@ -2659,28 +2659,28 @@
         <v>8.709475492388034</v>
       </c>
       <c r="O27" t="n">
-        <v>42.9221079387346</v>
+        <v>42.92210793873461</v>
       </c>
       <c r="P27" t="n">
-        <v>8.790736080525923</v>
+        <v>8.790736080525921</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.01363916719498722</v>
+        <v>0.01363916719498837</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1598309953914401</v>
+        <v>0.1598309953914868</v>
       </c>
       <c r="S27" t="n">
-        <v>0.08843377613239163</v>
+        <v>0.08843377613241288</v>
       </c>
       <c r="T27" t="n">
-        <v>0.06330920161717149</v>
+        <v>0.06330920161718731</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09619708630932558</v>
+        <v>0.09619708630932575</v>
       </c>
       <c r="V27" t="n">
-        <v>0.0534026871352206</v>
+        <v>0.0534026871352207</v>
       </c>
       <c r="W27" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.004501000000004751</v>
+        <v>0.002586399999984224</v>
       </c>
       <c r="Y27" t="n">
         <v>13</v>
@@ -2720,7 +2720,7 @@
         <v>55.9145706891916</v>
       </c>
       <c r="H28" t="n">
-        <v>9.149905146792666</v>
+        <v>9.149905146792657</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2741,28 +2741,28 @@
         <v>25.81162416209323</v>
       </c>
       <c r="O28" t="n">
-        <v>23.53286351560086</v>
+        <v>23.53286351560085</v>
       </c>
       <c r="P28" t="n">
-        <v>25.72464518798987</v>
+        <v>25.72464518798985</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.01553097820138024</v>
+        <v>0.01553097820137952</v>
       </c>
       <c r="R28" t="n">
-        <v>0.2040286896655756</v>
+        <v>0.2040286896655672</v>
       </c>
       <c r="S28" t="n">
-        <v>0.1402986258498193</v>
+        <v>0.1402986258498078</v>
       </c>
       <c r="T28" t="n">
-        <v>0.1637635418202682</v>
+        <v>0.163763541820256</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08641272366474798</v>
+        <v>0.08641272366474807</v>
       </c>
       <c r="V28" t="n">
-        <v>0.04784974197674789</v>
+        <v>0.04784974197674456</v>
       </c>
       <c r="W28" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.002259699999996201</v>
+        <v>0.002621200000021418</v>
       </c>
       <c r="Y28" t="n">
         <v>8</v>
@@ -2796,13 +2796,13 @@
         <v>359.9366181044718</v>
       </c>
       <c r="F29" t="n">
-        <v>20.03847719435133</v>
+        <v>20.03847719435132</v>
       </c>
       <c r="G29" t="n">
         <v>76.43180897187443</v>
       </c>
       <c r="H29" t="n">
-        <v>12.90151209638099</v>
+        <v>12.90151209638098</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2826,25 +2826,25 @@
         <v>37.57287804571027</v>
       </c>
       <c r="P29" t="n">
-        <v>26.56415442782785</v>
+        <v>26.56415442782783</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.01609086728292669</v>
+        <v>0.01609086728292677</v>
       </c>
       <c r="R29" t="n">
-        <v>0.2475432761761194</v>
+        <v>0.247543276176135</v>
       </c>
       <c r="S29" t="n">
-        <v>0.2282163609433457</v>
+        <v>0.2282163609433582</v>
       </c>
       <c r="T29" t="n">
-        <v>0.09656284125466134</v>
+        <v>0.09656284125466184</v>
       </c>
       <c r="U29" t="n">
         <v>0.09316752118920306</v>
       </c>
       <c r="V29" t="n">
-        <v>0.04741097343404417</v>
+        <v>0.04741097343404096</v>
       </c>
       <c r="W29" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.004766799999998739</v>
+        <v>0.002493900000018812</v>
       </c>
       <c r="Y29" t="n">
         <v>10</v>
@@ -2884,7 +2884,7 @@
         <v>131.0742072735221</v>
       </c>
       <c r="H30" t="n">
-        <v>9.751619132866347</v>
+        <v>9.751619132866349</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2911,22 +2911,22 @@
         <v>13.93264087912616</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.01436368668587237</v>
+        <v>0.01436368668587247</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1948116770334517</v>
+        <v>0.194811677033475</v>
       </c>
       <c r="S30" t="n">
-        <v>0.1348533063751743</v>
+        <v>0.1348533063751869</v>
       </c>
       <c r="T30" t="n">
-        <v>0.06284858669979297</v>
+        <v>0.06284858669979931</v>
       </c>
       <c r="U30" t="n">
-        <v>0.08625161138752245</v>
+        <v>0.08625161138752239</v>
       </c>
       <c r="V30" t="n">
-        <v>0.01587595777368387</v>
+        <v>0.01587595777368412</v>
       </c>
       <c r="W30" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.002880200000006994</v>
+        <v>0.002028299999977889</v>
       </c>
       <c r="Y30" t="n">
         <v>10</v>
@@ -2966,7 +2966,7 @@
         <v>154.6209813700308</v>
       </c>
       <c r="H31" t="n">
-        <v>6.392835509352078</v>
+        <v>6.392835509352079</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2993,22 +2993,22 @@
         <v>11.45929477903999</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.0130034144956262</v>
+        <v>0.01300341449562624</v>
       </c>
       <c r="R31" t="n">
-        <v>0.1171546694391405</v>
+        <v>0.1171546694391417</v>
       </c>
       <c r="S31" t="n">
-        <v>0.06296473155534595</v>
+        <v>0.06296473155534756</v>
       </c>
       <c r="T31" t="n">
-        <v>0.08832238210305111</v>
+        <v>0.08832238210304867</v>
       </c>
       <c r="U31" t="n">
-        <v>0.09052971995566808</v>
+        <v>0.09052971995566812</v>
       </c>
       <c r="V31" t="n">
-        <v>0.06651739840074949</v>
+        <v>0.06651739840074772</v>
       </c>
       <c r="W31" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.002533499999998412</v>
+        <v>0.002514699999977665</v>
       </c>
       <c r="Y31" t="n">
         <v>9</v>
@@ -3042,13 +3042,13 @@
         <v>0.02547675849141371</v>
       </c>
       <c r="F32" t="n">
-        <v>19.81815605250037</v>
+        <v>19.81815605250036</v>
       </c>
       <c r="G32" t="n">
         <v>116.0906179613474</v>
       </c>
       <c r="H32" t="n">
-        <v>7.462877973994816</v>
+        <v>7.462877973994814</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3072,25 +3072,25 @@
         <v>34.81151622742588</v>
       </c>
       <c r="P32" t="n">
-        <v>16.15432001777967</v>
+        <v>16.15432001777966</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.01423264231446481</v>
+        <v>0.01423264231446436</v>
       </c>
       <c r="R32" t="n">
-        <v>0.172678363983374</v>
+        <v>0.1726783639833553</v>
       </c>
       <c r="S32" t="n">
-        <v>0.1186226813861254</v>
+        <v>0.1186226813861138</v>
       </c>
       <c r="T32" t="n">
-        <v>0.06294423813561077</v>
+        <v>0.06294423813561027</v>
       </c>
       <c r="U32" t="n">
-        <v>0.08948119586338175</v>
+        <v>0.08948119586338174</v>
       </c>
       <c r="V32" t="n">
-        <v>0.06756583589667309</v>
+        <v>0.06756583589667405</v>
       </c>
       <c r="W32" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.004091200000004847</v>
+        <v>0.00184010000000967</v>
       </c>
       <c r="Y32" t="n">
         <v>9</v>
@@ -3130,7 +3130,7 @@
         <v>51.23547917717208</v>
       </c>
       <c r="H33" t="n">
-        <v>14.37093118127291</v>
+        <v>14.3709311812729</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3157,22 +3157,22 @@
         <v>31.59767953550192</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.01627308348459025</v>
+        <v>0.01627308348459021</v>
       </c>
       <c r="R33" t="n">
-        <v>0.244730028238046</v>
+        <v>0.2447300282380555</v>
       </c>
       <c r="S33" t="n">
-        <v>0.2088289891691658</v>
+        <v>0.2088289891691719</v>
       </c>
       <c r="T33" t="n">
-        <v>0.1916703224603203</v>
+        <v>0.1916703224603221</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0923048727593242</v>
+        <v>0.0923048727593241</v>
       </c>
       <c r="V33" t="n">
-        <v>0.05670514929218456</v>
+        <v>0.05670514929218555</v>
       </c>
       <c r="W33" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.0025032000000067</v>
+        <v>0.001760799999999563</v>
       </c>
       <c r="Y33" t="n">
         <v>9</v>
@@ -3212,7 +3212,7 @@
         <v>154.0814113190097</v>
       </c>
       <c r="H34" t="n">
-        <v>7.417613746816181</v>
+        <v>7.417613746816182</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3239,22 +3239,22 @@
         <v>10.61486102211273</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.01314439217866266</v>
+        <v>0.0131443921786622</v>
       </c>
       <c r="R34" t="n">
-        <v>0.1240951617529713</v>
+        <v>0.1240951617529635</v>
       </c>
       <c r="S34" t="n">
-        <v>0.06993635260260585</v>
+        <v>0.06993635260259948</v>
       </c>
       <c r="T34" t="n">
-        <v>0.06518990232389912</v>
+        <v>0.06518990232390137</v>
       </c>
       <c r="U34" t="n">
-        <v>0.09092354142471692</v>
+        <v>0.09092354142471694</v>
       </c>
       <c r="V34" t="n">
-        <v>0.04559811112586336</v>
+        <v>0.0455981111258639</v>
       </c>
       <c r="W34" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.004494000000008214</v>
+        <v>0.001831299999992098</v>
       </c>
       <c r="Y34" t="n">
         <v>9</v>
@@ -3291,10 +3291,10 @@
         <v>19.94835944679402</v>
       </c>
       <c r="G35" t="n">
-        <v>45.92200953450264</v>
+        <v>45.92200953450263</v>
       </c>
       <c r="H35" t="n">
-        <v>7.969044324427209</v>
+        <v>7.969044324427211</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3318,25 +3318,25 @@
         <v>18.60073356291898</v>
       </c>
       <c r="P35" t="n">
-        <v>25.30612801481836</v>
+        <v>25.30612801481835</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.01514168966928889</v>
+        <v>0.01514168966928915</v>
       </c>
       <c r="R35" t="n">
-        <v>0.1910742269716199</v>
+        <v>0.1910742269716286</v>
       </c>
       <c r="S35" t="n">
-        <v>0.1125913796720708</v>
+        <v>0.1125913796720786</v>
       </c>
       <c r="T35" t="n">
-        <v>0.196695625532467</v>
+        <v>0.1966956255324737</v>
       </c>
       <c r="U35" t="n">
-        <v>0.08641078343007189</v>
+        <v>0.08641078343007191</v>
       </c>
       <c r="V35" t="n">
-        <v>0.1981291213955623</v>
+        <v>0.1981291213955613</v>
       </c>
       <c r="W35" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.002338000000008833</v>
+        <v>0.00172059999999874</v>
       </c>
       <c r="Y35" t="n">
         <v>8</v>
@@ -3376,7 +3376,7 @@
         <v>7.165248778708867</v>
       </c>
       <c r="H36" t="n">
-        <v>12.09444848359651</v>
+        <v>12.09444848359652</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3403,22 +3403,22 @@
         <v>32.09082578491355</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.01421408682653815</v>
+        <v>0.01421408682653831</v>
       </c>
       <c r="R36" t="n">
-        <v>0.3197569822308566</v>
+        <v>0.3197569822308599</v>
       </c>
       <c r="S36" t="n">
-        <v>0.06238302429744062</v>
+        <v>0.06238302429744073</v>
       </c>
       <c r="T36" t="n">
-        <v>0.5348594790255795</v>
+        <v>0.5348594790255867</v>
       </c>
       <c r="U36" t="n">
-        <v>0.08598144885838532</v>
+        <v>0.0859814488583853</v>
       </c>
       <c r="V36" t="n">
-        <v>0.0799789927224179</v>
+        <v>0.07997899272241718</v>
       </c>
       <c r="W36" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.001959599999992179</v>
+        <v>0.001426000000009253</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3455,10 +3455,10 @@
         <v>20.07549373609753</v>
       </c>
       <c r="G37" t="n">
-        <v>82.79603729972416</v>
+        <v>82.79603729972418</v>
       </c>
       <c r="H37" t="n">
-        <v>6.743978092961973</v>
+        <v>6.743978092961972</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3485,22 +3485,22 @@
         <v>20.63426179036647</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.01491078880805345</v>
+        <v>0.0149107888080543</v>
       </c>
       <c r="R37" t="n">
-        <v>0.1812495783240312</v>
+        <v>0.1812495783240429</v>
       </c>
       <c r="S37" t="n">
-        <v>0.1211631025110898</v>
+        <v>0.1211631025111006</v>
       </c>
       <c r="T37" t="n">
-        <v>0.1127687311700384</v>
+        <v>0.112768731170046</v>
       </c>
       <c r="U37" t="n">
-        <v>0.09392978925287816</v>
+        <v>0.09392978925287805</v>
       </c>
       <c r="V37" t="n">
-        <v>0.05027752721706275</v>
+        <v>0.0502775272170618</v>
       </c>
       <c r="W37" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.002538700000002336</v>
+        <v>0.001776000000006661</v>
       </c>
       <c r="Y37" t="n">
         <v>9</v>
@@ -3567,19 +3567,19 @@
         <v>13.77188049809235</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.01418148136482594</v>
+        <v>0.01418148136482598</v>
       </c>
       <c r="R38" t="n">
-        <v>0.1979053809917836</v>
+        <v>0.1979053809918009</v>
       </c>
       <c r="S38" t="n">
-        <v>0.1391980270010827</v>
+        <v>0.139198027001092</v>
       </c>
       <c r="T38" t="n">
-        <v>0.06708396098645701</v>
+        <v>0.06708396098646292</v>
       </c>
       <c r="U38" t="n">
-        <v>0.09950549775951675</v>
+        <v>0.09950549775951666</v>
       </c>
       <c r="V38" t="n">
         <v>0.0645761089507077</v>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.00450379999999484</v>
+        <v>0.002880699999991521</v>
       </c>
       <c r="Y38" t="n">
         <v>15</v>
@@ -3649,19 +3649,19 @@
         <v>8.05072405134276</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.01213268988997891</v>
+        <v>0.01213268988997897</v>
       </c>
       <c r="R39" t="n">
-        <v>0.09369136753007794</v>
+        <v>0.09369136753007275</v>
       </c>
       <c r="S39" t="n">
-        <v>0.0484569418983845</v>
+        <v>0.04845694189838354</v>
       </c>
       <c r="T39" t="n">
-        <v>0.07749115733304592</v>
+        <v>0.07749115733304544</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0868953727979721</v>
+        <v>0.08689537279797206</v>
       </c>
       <c r="V39" t="n">
         <v>0.09162320213412152</v>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.002498399999993239</v>
+        <v>0.001764400000013211</v>
       </c>
       <c r="Y39" t="n">
         <v>9</v>
@@ -3725,28 +3725,28 @@
         <v>28.11848681131468</v>
       </c>
       <c r="O40" t="n">
-        <v>34.99077251569305</v>
+        <v>34.99077251569306</v>
       </c>
       <c r="P40" t="n">
         <v>28.36040350335321</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.01635702042398922</v>
+        <v>0.01635702042398828</v>
       </c>
       <c r="R40" t="n">
-        <v>0.2520231422918431</v>
+        <v>0.2520231422917936</v>
       </c>
       <c r="S40" t="n">
-        <v>0.2314070660404494</v>
+        <v>0.231407066040404</v>
       </c>
       <c r="T40" t="n">
-        <v>0.1217754517678428</v>
+        <v>0.1217754517678299</v>
       </c>
       <c r="U40" t="n">
-        <v>0.09564157556391029</v>
+        <v>0.09564157556391026</v>
       </c>
       <c r="V40" t="n">
-        <v>0.04935762640140066</v>
+        <v>0.04935762640140121</v>
       </c>
       <c r="W40" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.002657900000002655</v>
+        <v>0.001988199999999551</v>
       </c>
       <c r="Y40" t="n">
         <v>10</v>
@@ -3780,7 +3780,7 @@
         <v>0.00121659694286246</v>
       </c>
       <c r="F41" t="n">
-        <v>19.82040782304816</v>
+        <v>19.82040782304817</v>
       </c>
       <c r="G41" t="n">
         <v>98.36544332543828</v>
@@ -3810,25 +3810,25 @@
         <v>46.68012810035543</v>
       </c>
       <c r="P41" t="n">
-        <v>21.91047888099358</v>
+        <v>21.91047888099359</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.01531983618639225</v>
+        <v>0.01531983618639365</v>
       </c>
       <c r="R41" t="n">
-        <v>0.2453770316890832</v>
+        <v>0.2453770316891596</v>
       </c>
       <c r="S41" t="n">
-        <v>0.2249816942366548</v>
+        <v>0.2249816942367229</v>
       </c>
       <c r="T41" t="n">
-        <v>0.05278173499975818</v>
+        <v>0.05278173499975915</v>
       </c>
       <c r="U41" t="n">
-        <v>0.09403147314307721</v>
+        <v>0.09403147314307733</v>
       </c>
       <c r="V41" t="n">
-        <v>0.04915339504837837</v>
+        <v>0.04915339504837677</v>
       </c>
       <c r="W41" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.002936300000001779</v>
+        <v>0.002293500000007498</v>
       </c>
       <c r="Y41" t="n">
         <v>11</v>
@@ -3862,10 +3862,10 @@
         <v>359.9874470811916</v>
       </c>
       <c r="F42" t="n">
-        <v>20.07618220216735</v>
+        <v>20.07618220216734</v>
       </c>
       <c r="G42" t="n">
-        <v>70.91881299666071</v>
+        <v>70.91881299666068</v>
       </c>
       <c r="H42" t="n">
         <v>3.791396745167812</v>
@@ -3895,22 +3895,22 @@
         <v>19.71975437829984</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.01409440761057586</v>
+        <v>0.01409440761057577</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1571294983687382</v>
+        <v>0.1571294983687376</v>
       </c>
       <c r="S42" t="n">
-        <v>0.07787374783456018</v>
+        <v>0.0778737478345578</v>
       </c>
       <c r="T42" t="n">
-        <v>0.1777350423655727</v>
+        <v>0.1777350423655713</v>
       </c>
       <c r="U42" t="n">
-        <v>0.08719458563796061</v>
+        <v>0.08719458563796068</v>
       </c>
       <c r="V42" t="n">
-        <v>0.1801769131747519</v>
+        <v>0.180176913174753</v>
       </c>
       <c r="W42" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.002163800000005267</v>
+        <v>0.001530999999999949</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -3947,10 +3947,10 @@
         <v>19.9776281767993</v>
       </c>
       <c r="G43" t="n">
-        <v>49.02409328461783</v>
+        <v>49.02409328461785</v>
       </c>
       <c r="H43" t="n">
-        <v>3.176529575031681</v>
+        <v>3.17652957503168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3977,22 +3977,22 @@
         <v>20.27441468700641</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.01361514718098381</v>
+        <v>0.01361514718098383</v>
       </c>
       <c r="R43" t="n">
-        <v>0.1652972799342299</v>
+        <v>0.1652972799342267</v>
       </c>
       <c r="S43" t="n">
-        <v>0.06334199906231343</v>
+        <v>0.06334199906231286</v>
       </c>
       <c r="T43" t="n">
-        <v>0.2340818751600896</v>
+        <v>0.2340818751600888</v>
       </c>
       <c r="U43" t="n">
-        <v>0.09017800268439856</v>
+        <v>0.09017800268439853</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4125283838461968</v>
+        <v>0.4125283838461985</v>
       </c>
       <c r="W43" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.00221080000000029</v>
+        <v>0.001591899999993984</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4029,10 +4029,10 @@
         <v>19.99645610192362</v>
       </c>
       <c r="G44" t="n">
-        <v>67.88688072359626</v>
+        <v>67.88688072359628</v>
       </c>
       <c r="H44" t="n">
-        <v>14.21285741476969</v>
+        <v>14.21285741476968</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4056,25 +4056,25 @@
         <v>35.52758621316327</v>
       </c>
       <c r="P44" t="n">
-        <v>29.24467592418446</v>
+        <v>29.24467592418444</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.01615934826772205</v>
+        <v>0.01615934826772211</v>
       </c>
       <c r="R44" t="n">
-        <v>0.2568722593427534</v>
+        <v>0.2568722593427352</v>
       </c>
       <c r="S44" t="n">
-        <v>0.2438062442307957</v>
+        <v>0.2438062442307808</v>
       </c>
       <c r="T44" t="n">
-        <v>0.1271222991936757</v>
+        <v>0.1271222991936738</v>
       </c>
       <c r="U44" t="n">
-        <v>0.08437310203615389</v>
+        <v>0.08437310203615396</v>
       </c>
       <c r="V44" t="n">
-        <v>0.06776285516834873</v>
+        <v>0.06776285516835229</v>
       </c>
       <c r="W44" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.002647899999999481</v>
+        <v>0.002595200000001796</v>
       </c>
       <c r="Y44" t="n">
         <v>10</v>
@@ -4141,22 +4141,22 @@
         <v>29.55239998581721</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.01499856870478844</v>
+        <v>0.01499856870478834</v>
       </c>
       <c r="R45" t="n">
-        <v>0.220376216331366</v>
+        <v>0.2203762163313656</v>
       </c>
       <c r="S45" t="n">
-        <v>0.08860657163357545</v>
+        <v>0.08860657163357639</v>
       </c>
       <c r="T45" t="n">
-        <v>0.3294938340429292</v>
+        <v>0.3294938340429258</v>
       </c>
       <c r="U45" t="n">
-        <v>0.08800659847187962</v>
+        <v>0.08800659847187949</v>
       </c>
       <c r="V45" t="n">
-        <v>0.07408897199022643</v>
+        <v>0.07408897199022706</v>
       </c>
       <c r="W45" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.002294500000004973</v>
+        <v>0.001629100000002381</v>
       </c>
       <c r="Y45" t="n">
         <v>8</v>
@@ -4196,7 +4196,7 @@
         <v>150.0784311859089</v>
       </c>
       <c r="H46" t="n">
-        <v>4.34279545631336</v>
+        <v>4.342795456313358</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4217,28 +4217,28 @@
         <v>13.46641365931518</v>
       </c>
       <c r="O46" t="n">
-        <v>16.01555435751516</v>
+        <v>16.01555435751515</v>
       </c>
       <c r="P46" t="n">
-        <v>13.6785168084242</v>
+        <v>13.67851680842421</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.0129353385227394</v>
+        <v>0.0129353385227398</v>
       </c>
       <c r="R46" t="n">
-        <v>0.1226763696388364</v>
+        <v>0.1226763696388339</v>
       </c>
       <c r="S46" t="n">
-        <v>0.05628774781210255</v>
+        <v>0.05628774781210489</v>
       </c>
       <c r="T46" t="n">
-        <v>0.1413913959801068</v>
+        <v>0.1413913959801111</v>
       </c>
       <c r="U46" t="n">
         <v>0.08978744272798091</v>
       </c>
       <c r="V46" t="n">
-        <v>0.09372081622632267</v>
+        <v>0.09372081622632207</v>
       </c>
       <c r="W46" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.002149900000006255</v>
+        <v>0.001595299999991084</v>
       </c>
       <c r="Y46" t="n">
         <v>8</v>
@@ -4278,7 +4278,7 @@
         <v>178.2417879617671</v>
       </c>
       <c r="H47" t="n">
-        <v>9.673099661610113</v>
+        <v>9.673099661610111</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -4302,25 +4302,25 @@
         <v>14.91700814416705</v>
       </c>
       <c r="P47" t="n">
-        <v>5.957812565213019</v>
+        <v>5.957812565213022</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.0103287256262888</v>
+        <v>0.01032872562628905</v>
       </c>
       <c r="R47" t="n">
-        <v>0.07572281427845091</v>
+        <v>0.07572281427844951</v>
       </c>
       <c r="S47" t="n">
-        <v>0.02954274184045635</v>
+        <v>0.02954274184045751</v>
       </c>
       <c r="T47" t="n">
-        <v>0.1011625071525275</v>
+        <v>0.1011625071525296</v>
       </c>
       <c r="U47" t="n">
-        <v>0.08493145550166825</v>
+        <v>0.08493145550166822</v>
       </c>
       <c r="V47" t="n">
-        <v>0.06516699704645353</v>
+        <v>0.06516699704645233</v>
       </c>
       <c r="W47" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.003690000000005966</v>
+        <v>0.001701800000006415</v>
       </c>
       <c r="Y47" t="n">
         <v>8</v>
@@ -4387,22 +4387,22 @@
         <v>11.77944144900683</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.01414811772986369</v>
+        <v>0.01414811772986345</v>
       </c>
       <c r="R48" t="n">
-        <v>0.1984229940810656</v>
+        <v>0.1984229940810648</v>
       </c>
       <c r="S48" t="n">
-        <v>0.1289708028083719</v>
+        <v>0.1289708028083699</v>
       </c>
       <c r="T48" t="n">
-        <v>0.08008498754984315</v>
+        <v>0.08008498754984415</v>
       </c>
       <c r="U48" t="n">
-        <v>0.09274364662345815</v>
+        <v>0.09274364662345802</v>
       </c>
       <c r="V48" t="n">
-        <v>0.01964386640468541</v>
+        <v>0.01964386640468449</v>
       </c>
       <c r="W48" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.004403600000003394</v>
+        <v>0.003296700000021247</v>
       </c>
       <c r="Y48" t="n">
         <v>18</v>
@@ -4442,7 +4442,7 @@
         <v>20.5475274562153</v>
       </c>
       <c r="H49" t="n">
-        <v>14.5810883297828</v>
+        <v>14.58108832978279</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4466,25 +4466,25 @@
         <v>12.18438593748488</v>
       </c>
       <c r="P49" t="n">
-        <v>34.66269748843926</v>
+        <v>34.66269748843925</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.01615929877296746</v>
+        <v>0.01615929877296772</v>
       </c>
       <c r="R49" t="n">
-        <v>0.2488587417354046</v>
+        <v>0.2488587417354085</v>
       </c>
       <c r="S49" t="n">
-        <v>0.1173757188789915</v>
+        <v>0.1173757188789946</v>
       </c>
       <c r="T49" t="n">
-        <v>0.3626879652325936</v>
+        <v>0.3626879652326011</v>
       </c>
       <c r="U49" t="n">
-        <v>0.08962291548234004</v>
+        <v>0.08962291548233994</v>
       </c>
       <c r="V49" t="n">
-        <v>0.02481362715830209</v>
+        <v>0.02481362715830368</v>
       </c>
       <c r="W49" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.003907999999995582</v>
+        <v>0.001591999999988047</v>
       </c>
       <c r="Y49" t="n">
         <v>8</v>
@@ -4518,13 +4518,13 @@
         <v>359.9961711478887</v>
       </c>
       <c r="F50" t="n">
-        <v>19.66883962286237</v>
+        <v>19.66883962286238</v>
       </c>
       <c r="G50" t="n">
         <v>3.008110142905959</v>
       </c>
       <c r="H50" t="n">
-        <v>13.89332113408213</v>
+        <v>13.89332113408212</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4551,22 +4551,22 @@
         <v>33.76342041985876</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.01322171526552691</v>
+        <v>0.01322171526552667</v>
       </c>
       <c r="R50" t="n">
-        <v>0.407763742017614</v>
+        <v>0.4077637420176098</v>
       </c>
       <c r="S50" t="n">
-        <v>0.05182767154273472</v>
+        <v>0.05182767154273379</v>
       </c>
       <c r="T50" t="n">
-        <v>0.6747019734666029</v>
+        <v>0.6747019734665858</v>
       </c>
       <c r="U50" t="n">
-        <v>0.09168678373962068</v>
+        <v>0.09168678373962071</v>
       </c>
       <c r="V50" t="n">
-        <v>0.05367127317217001</v>
+        <v>0.05367127317216872</v>
       </c>
       <c r="W50" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.001984800000002451</v>
+        <v>0.001429500000000417</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4603,10 +4603,10 @@
         <v>19.81141732823098</v>
       </c>
       <c r="G51" t="n">
-        <v>53.47015611387535</v>
+        <v>53.47015611387539</v>
       </c>
       <c r="H51" t="n">
-        <v>5.96334893504178</v>
+        <v>5.963348935041773</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4630,25 +4630,25 @@
         <v>17.86908932697819</v>
       </c>
       <c r="P51" t="n">
-        <v>22.54203932029785</v>
+        <v>22.54203932029784</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.01459216967268407</v>
+        <v>0.01459216967268372</v>
       </c>
       <c r="R51" t="n">
-        <v>0.1724232092257111</v>
+        <v>0.1724232092257121</v>
       </c>
       <c r="S51" t="n">
-        <v>0.09574122868310689</v>
+        <v>0.09574122868310378</v>
       </c>
       <c r="T51" t="n">
-        <v>0.1806757544072211</v>
+        <v>0.1806757544072151</v>
       </c>
       <c r="U51" t="n">
-        <v>0.08192256823097246</v>
+        <v>0.08192256823097237</v>
       </c>
       <c r="V51" t="n">
-        <v>0.03902926853811538</v>
+        <v>0.03902926853811772</v>
       </c>
       <c r="W51" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.002512199999998188</v>
+        <v>0.001752799999991339</v>
       </c>
       <c r="Y51" t="n">
         <v>8</v>
@@ -4682,13 +4682,13 @@
         <v>359.9926470913167</v>
       </c>
       <c r="F52" t="n">
-        <v>19.98901688930589</v>
+        <v>19.98901688930588</v>
       </c>
       <c r="G52" t="n">
-        <v>88.4452508714032</v>
+        <v>88.44525087140319</v>
       </c>
       <c r="H52" t="n">
-        <v>5.770589691785253</v>
+        <v>5.770589691785251</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4712,25 +4712,25 @@
         <v>24.73527655486557</v>
       </c>
       <c r="P52" t="n">
-        <v>19.33445907874358</v>
+        <v>19.33445907874357</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.01455497024789664</v>
+        <v>0.01455497024789653</v>
       </c>
       <c r="R52" t="n">
-        <v>0.1683007281793039</v>
+        <v>0.1683007281793081</v>
       </c>
       <c r="S52" t="n">
-        <v>0.1064885784756683</v>
+        <v>0.1064885784756668</v>
       </c>
       <c r="T52" t="n">
-        <v>0.1146402630382985</v>
+        <v>0.1146402630382973</v>
       </c>
       <c r="U52" t="n">
-        <v>0.08823365426922446</v>
+        <v>0.08823365426922447</v>
       </c>
       <c r="V52" t="n">
-        <v>0.04097474159269431</v>
+        <v>0.04097474159269261</v>
       </c>
       <c r="W52" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.002582000000003859</v>
+        <v>0.001771899999994275</v>
       </c>
       <c r="Y52" t="n">
         <v>9</v>
@@ -4770,7 +4770,7 @@
         <v>118.6130125563223</v>
       </c>
       <c r="H53" t="n">
-        <v>3.450161371038762</v>
+        <v>3.45016137103876</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4797,22 +4797,22 @@
         <v>16.01431405865976</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.01336929826572638</v>
+        <v>0.0133692982657261</v>
       </c>
       <c r="R53" t="n">
-        <v>0.134180566355999</v>
+        <v>0.1341805663559958</v>
       </c>
       <c r="S53" t="n">
-        <v>0.06742641668432593</v>
+        <v>0.06742641668432296</v>
       </c>
       <c r="T53" t="n">
-        <v>0.1420965744348373</v>
+        <v>0.1420965744348337</v>
       </c>
       <c r="U53" t="n">
         <v>0.08758961165420236</v>
       </c>
       <c r="V53" t="n">
-        <v>0.1632850599039527</v>
+        <v>0.1632850599039536</v>
       </c>
       <c r="W53" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.002188099999997917</v>
+        <v>0.001599399999975049</v>
       </c>
       <c r="Y53" t="n">
         <v>8</v>
@@ -4879,22 +4879,22 @@
         <v>14.81168832624926</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.01274364692615359</v>
+        <v>0.01274364692615412</v>
       </c>
       <c r="R54" t="n">
-        <v>0.1307386446247482</v>
+        <v>0.1307386446247477</v>
       </c>
       <c r="S54" t="n">
-        <v>0.05245732677773492</v>
+        <v>0.05245732677773727</v>
       </c>
       <c r="T54" t="n">
-        <v>0.1730021771716748</v>
+        <v>0.1730021771716833</v>
       </c>
       <c r="U54" t="n">
-        <v>0.08310810642693559</v>
+        <v>0.08310810642693557</v>
       </c>
       <c r="V54" t="n">
-        <v>0.2214320433205804</v>
+        <v>0.2214320433205786</v>
       </c>
       <c r="W54" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.002253500000009012</v>
+        <v>0.001716599999980417</v>
       </c>
       <c r="Y54" t="n">
         <v>8</v>
@@ -4934,7 +4934,7 @@
         <v>152.1779471192534</v>
       </c>
       <c r="H55" t="n">
-        <v>9.736043777396965</v>
+        <v>9.736043777396963</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4958,25 +4958,25 @@
         <v>43.11954552864289</v>
       </c>
       <c r="P55" t="n">
-        <v>9.676485449653272</v>
+        <v>9.676485449653274</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.01372013769268686</v>
+        <v>0.01372013769268888</v>
       </c>
       <c r="R55" t="n">
-        <v>0.1623625225810494</v>
+        <v>0.1623625225810852</v>
       </c>
       <c r="S55" t="n">
-        <v>0.09405423884599798</v>
+        <v>0.09405423884602124</v>
       </c>
       <c r="T55" t="n">
-        <v>0.06191284763788289</v>
+        <v>0.06191284763788903</v>
       </c>
       <c r="U55" t="n">
-        <v>0.1009713616911867</v>
+        <v>0.1009713616911866</v>
       </c>
       <c r="V55" t="n">
-        <v>0.01680672341793284</v>
+        <v>0.0168067234179327</v>
       </c>
       <c r="W55" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.003360700000001771</v>
+        <v>0.002490899999997964</v>
       </c>
       <c r="Y55" t="n">
         <v>13</v>
@@ -5016,7 +5016,7 @@
         <v>76.4484869236004</v>
       </c>
       <c r="H56" t="n">
-        <v>7.12663798786789</v>
+        <v>7.126637987867888</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -5040,25 +5040,25 @@
         <v>26.39898116065636</v>
       </c>
       <c r="P56" t="n">
-        <v>21.37809518166385</v>
+        <v>21.37809518166384</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.01474789619683185</v>
+        <v>0.01474789619683167</v>
       </c>
       <c r="R56" t="n">
-        <v>0.181282344809076</v>
+        <v>0.1812823448090756</v>
       </c>
       <c r="S56" t="n">
-        <v>0.1242744082395101</v>
+        <v>0.1242744082395082</v>
       </c>
       <c r="T56" t="n">
-        <v>0.1175131393137782</v>
+        <v>0.1175131393137753</v>
       </c>
       <c r="U56" t="n">
-        <v>0.08853215606928963</v>
+        <v>0.08853215606928967</v>
       </c>
       <c r="V56" t="n">
-        <v>0.1407344907739937</v>
+        <v>0.1407344907739948</v>
       </c>
       <c r="W56" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.002583200000003671</v>
+        <v>0.001779400000003761</v>
       </c>
       <c r="Y56" t="n">
         <v>9</v>
@@ -5098,7 +5098,7 @@
         <v>16.81332565613959</v>
       </c>
       <c r="H57" t="n">
-        <v>14.89803402573435</v>
+        <v>14.89803402573436</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -5125,22 +5125,22 @@
         <v>35.14572399093765</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.01594809720569292</v>
+        <v>0.01594809720569283</v>
       </c>
       <c r="R57" t="n">
-        <v>0.2586494053019636</v>
+        <v>0.2586494053019655</v>
       </c>
       <c r="S57" t="n">
-        <v>0.1057977341532837</v>
+        <v>0.1057977341532841</v>
       </c>
       <c r="T57" t="n">
         <v>0.4012124493807178</v>
       </c>
       <c r="U57" t="n">
-        <v>0.0879411312291241</v>
+        <v>0.08794113122912403</v>
       </c>
       <c r="V57" t="n">
-        <v>0.06926759653518161</v>
+        <v>0.06926759653518191</v>
       </c>
       <c r="W57" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.002200100000010252</v>
+        <v>0.001936900000004016</v>
       </c>
       <c r="Y57" t="n">
         <v>8</v>
@@ -5180,7 +5180,7 @@
         <v>176.8391036524569</v>
       </c>
       <c r="H58" t="n">
-        <v>6.938433103372001</v>
+        <v>6.938433103371998</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -5204,25 +5204,25 @@
         <v>10.08456078021196</v>
       </c>
       <c r="P58" t="n">
-        <v>9.252810899457344</v>
+        <v>9.252810899457348</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.01054415907321343</v>
+        <v>0.01054415907321345</v>
       </c>
       <c r="R58" t="n">
-        <v>0.1104426458304614</v>
+        <v>0.1104426458304615</v>
       </c>
       <c r="S58" t="n">
-        <v>0.03022711826782502</v>
+        <v>0.0302271182678251</v>
       </c>
       <c r="T58" t="n">
         <v>0.1588474695041205</v>
       </c>
       <c r="U58" t="n">
-        <v>0.0863028373450314</v>
+        <v>0.08630283734503136</v>
       </c>
       <c r="V58" t="n">
-        <v>0.07060038336973969</v>
+        <v>0.07060038336974128</v>
       </c>
       <c r="W58" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.003514600000002588</v>
+        <v>0.001647899999994706</v>
       </c>
       <c r="Y58" t="n">
         <v>8</v>
@@ -5259,10 +5259,10 @@
         <v>19.67082946980852</v>
       </c>
       <c r="G59" t="n">
-        <v>14.64564518614373</v>
+        <v>14.64564518614374</v>
       </c>
       <c r="H59" t="n">
-        <v>6.364083619327078</v>
+        <v>6.364083619327074</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -5289,22 +5289,22 @@
         <v>24.63806563303221</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.01326661814121069</v>
+        <v>0.01326661814121062</v>
       </c>
       <c r="R59" t="n">
-        <v>0.2234240148369216</v>
+        <v>0.2234240148369225</v>
       </c>
       <c r="S59" t="n">
-        <v>0.05615852584675561</v>
+        <v>0.05615852584675497</v>
       </c>
       <c r="T59" t="n">
-        <v>0.3590078085549365</v>
+        <v>0.3590078085549336</v>
       </c>
       <c r="U59" t="n">
-        <v>0.09817282573231016</v>
+        <v>0.09817282573231011</v>
       </c>
       <c r="V59" t="n">
-        <v>0.3161167825063745</v>
+        <v>0.316116782506373</v>
       </c>
       <c r="W59" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.001958299999998303</v>
+        <v>0.001409600000016553</v>
       </c>
       <c r="Y59" t="n">
         <v>7</v>
@@ -5341,10 +5341,10 @@
         <v>19.60513995078549</v>
       </c>
       <c r="G60" t="n">
-        <v>64.73999108085059</v>
+        <v>64.73999108085056</v>
       </c>
       <c r="H60" t="n">
-        <v>8.325870850467947</v>
+        <v>8.32587085046795</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -5371,22 +5371,22 @@
         <v>23.57407270947967</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.01502955950794932</v>
+        <v>0.0150295595079502</v>
       </c>
       <c r="R60" t="n">
-        <v>0.1901897277553187</v>
+        <v>0.190189727755333</v>
       </c>
       <c r="S60" t="n">
-        <v>0.1347530230590114</v>
+        <v>0.1347530230590263</v>
       </c>
       <c r="T60" t="n">
-        <v>0.1351763137491882</v>
+        <v>0.1351763137491988</v>
       </c>
       <c r="U60" t="n">
-        <v>0.08475765783804853</v>
+        <v>0.08475765783804838</v>
       </c>
       <c r="V60" t="n">
-        <v>0.09356208299211424</v>
+        <v>0.09356208299211363</v>
       </c>
       <c r="W60" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.002607099999991647</v>
+        <v>0.001767099999995025</v>
       </c>
       <c r="Y60" t="n">
         <v>8</v>
@@ -5423,10 +5423,10 @@
         <v>19.90982049203853</v>
       </c>
       <c r="G61" t="n">
-        <v>167.1038950722244</v>
+        <v>167.1038950722243</v>
       </c>
       <c r="H61" t="n">
-        <v>4.95246627391029</v>
+        <v>4.952466273910288</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -5450,25 +5450,25 @@
         <v>12.29221266169316</v>
       </c>
       <c r="P61" t="n">
-        <v>11.77023781712052</v>
+        <v>11.77023781712053</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.01169415597078052</v>
+        <v>0.01169415597078061</v>
       </c>
       <c r="R61" t="n">
-        <v>0.114082242103523</v>
+        <v>0.1140822421035248</v>
       </c>
       <c r="S61" t="n">
-        <v>0.04100748131924149</v>
+        <v>0.04100748131924205</v>
       </c>
       <c r="T61" t="n">
-        <v>0.1590596433614486</v>
+        <v>0.1590596433614516</v>
       </c>
       <c r="U61" t="n">
         <v>0.09040102273996506</v>
       </c>
       <c r="V61" t="n">
-        <v>0.0917440973933944</v>
+        <v>0.09174409739339112</v>
       </c>
       <c r="W61" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.002190299999995204</v>
+        <v>0.00172030000001655</v>
       </c>
       <c r="Y61" t="n">
         <v>8</v>
@@ -5505,10 +5505,10 @@
         <v>20.26784913382362</v>
       </c>
       <c r="G62" t="n">
-        <v>54.03501903511725</v>
+        <v>54.03501903511723</v>
       </c>
       <c r="H62" t="n">
-        <v>5.421341579598782</v>
+        <v>5.421341579598784</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5535,22 +5535,22 @@
         <v>22.41238185261438</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.01475979826282508</v>
+        <v>0.01475979826282528</v>
       </c>
       <c r="R62" t="n">
-        <v>0.1754404549959399</v>
+        <v>0.175440454995943</v>
       </c>
       <c r="S62" t="n">
-        <v>0.09157009164782706</v>
+        <v>0.09157009164783173</v>
       </c>
       <c r="T62" t="n">
-        <v>0.1920787813947601</v>
+        <v>0.1920787813947637</v>
       </c>
       <c r="U62" t="n">
-        <v>0.09637926637085656</v>
+        <v>0.09637926637085646</v>
       </c>
       <c r="V62" t="n">
-        <v>0.1403371059903098</v>
+        <v>0.1403371059903111</v>
       </c>
       <c r="W62" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.002233899999993127</v>
+        <v>0.001591999999988047</v>
       </c>
       <c r="Y62" t="n">
         <v>8</v>
@@ -5590,7 +5590,7 @@
         <v>148.1324104465742</v>
       </c>
       <c r="H63" t="n">
-        <v>5.213946616205415</v>
+        <v>5.213946616205413</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5611,28 +5611,28 @@
         <v>12.87701081010599</v>
       </c>
       <c r="O63" t="n">
-        <v>20.15954641135081</v>
+        <v>20.15954641135082</v>
       </c>
       <c r="P63" t="n">
         <v>12.9976658255361</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.0131174834039379</v>
+        <v>0.01311748340393817</v>
       </c>
       <c r="R63" t="n">
-        <v>0.121675661475076</v>
+        <v>0.1216756614750748</v>
       </c>
       <c r="S63" t="n">
-        <v>0.06333228402590227</v>
+        <v>0.06333228402590391</v>
       </c>
       <c r="T63" t="n">
-        <v>0.1091530618247823</v>
+        <v>0.1091530618247836</v>
       </c>
       <c r="U63" t="n">
-        <v>0.09281316428009932</v>
+        <v>0.09281316428009943</v>
       </c>
       <c r="V63" t="n">
-        <v>0.05620873748372755</v>
+        <v>0.05620873748372787</v>
       </c>
       <c r="W63" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.002229599999992615</v>
+        <v>0.001619900000008556</v>
       </c>
       <c r="Y63" t="n">
         <v>8</v>
@@ -5672,7 +5672,7 @@
         <v>6.318785531446992</v>
       </c>
       <c r="H64" t="n">
-        <v>8.494021230337161</v>
+        <v>8.494021230337166</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5699,22 +5699,22 @@
         <v>28.00953787539054</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.01342019848774847</v>
+        <v>0.01342019848774838</v>
       </c>
       <c r="R64" t="n">
-        <v>0.3139202894073367</v>
+        <v>0.313920289407332</v>
       </c>
       <c r="S64" t="n">
-        <v>0.05127069269467383</v>
+        <v>0.05127069269467385</v>
       </c>
       <c r="T64" t="n">
-        <v>0.5118837257001363</v>
+        <v>0.5118837257001299</v>
       </c>
       <c r="U64" t="n">
-        <v>0.08045702407546232</v>
+        <v>0.08045702407546235</v>
       </c>
       <c r="V64" t="n">
-        <v>0.1189939250525746</v>
+        <v>0.1189939250525729</v>
       </c>
       <c r="W64" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.002187999999989643</v>
+        <v>0.001487300000007963</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5754,7 +5754,7 @@
         <v>99.92671570185026</v>
       </c>
       <c r="H65" t="n">
-        <v>7.79709001161913</v>
+        <v>7.797090011619127</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5775,28 +5775,28 @@
         <v>18.89625465573057</v>
       </c>
       <c r="O65" t="n">
-        <v>33.18560670928533</v>
+        <v>33.18560670928535</v>
       </c>
       <c r="P65" t="n">
         <v>18.9684650989396</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.01486913107531945</v>
+        <v>0.01486913107531981</v>
       </c>
       <c r="R65" t="n">
-        <v>0.1893144345152099</v>
+        <v>0.1893144345151997</v>
       </c>
       <c r="S65" t="n">
-        <v>0.1356032335617839</v>
+        <v>0.1356032335617806</v>
       </c>
       <c r="T65" t="n">
-        <v>0.0760087468226783</v>
+        <v>0.0760087468226803</v>
       </c>
       <c r="U65" t="n">
-        <v>0.08636151370684546</v>
+        <v>0.08636151370684533</v>
       </c>
       <c r="V65" t="n">
-        <v>0.02556223206973342</v>
+        <v>0.02556223206973225</v>
       </c>
       <c r="W65" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.004072299999990037</v>
+        <v>0.001864199999999983</v>
       </c>
       <c r="Y65" t="n">
         <v>9</v>
@@ -5830,13 +5830,13 @@
         <v>0.08174492783995638</v>
       </c>
       <c r="F66" t="n">
-        <v>20.02404957477063</v>
+        <v>20.02404957477064</v>
       </c>
       <c r="G66" t="n">
-        <v>68.67069756338094</v>
+        <v>68.67069756338095</v>
       </c>
       <c r="H66" t="n">
-        <v>9.700853312826771</v>
+        <v>9.700853312826773</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5857,28 +5857,28 @@
         <v>24.88481197061157</v>
       </c>
       <c r="O66" t="n">
-        <v>29.09395818580094</v>
+        <v>29.09395818580095</v>
       </c>
       <c r="P66" t="n">
-        <v>24.76681986742719</v>
+        <v>24.7668198674272</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.01546581233820499</v>
+        <v>0.01546581233820462</v>
       </c>
       <c r="R66" t="n">
-        <v>0.2117260746607443</v>
+        <v>0.2117260746607328</v>
       </c>
       <c r="S66" t="n">
-        <v>0.1621242478291613</v>
+        <v>0.1621242478291505</v>
       </c>
       <c r="T66" t="n">
-        <v>0.1253320072121918</v>
+        <v>0.1253320072121863</v>
       </c>
       <c r="U66" t="n">
-        <v>0.09717343516623618</v>
+        <v>0.09717343516623608</v>
       </c>
       <c r="V66" t="n">
-        <v>0.04662988106383859</v>
+        <v>0.04662988106383861</v>
       </c>
       <c r="W66" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.002647699999997144</v>
+        <v>0.001740899999987278</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5915,10 +5915,10 @@
         <v>19.95846707267551</v>
       </c>
       <c r="G67" t="n">
-        <v>38.93425376671124</v>
+        <v>38.93425376671127</v>
       </c>
       <c r="H67" t="n">
-        <v>3.36705437298467</v>
+        <v>3.367054372984667</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5945,22 +5945,22 @@
         <v>20.82085514878093</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.01347825161813597</v>
+        <v>0.01347825161813595</v>
       </c>
       <c r="R67" t="n">
-        <v>0.1741248772775482</v>
+        <v>0.1741248772775487</v>
       </c>
       <c r="S67" t="n">
-        <v>0.06009646879840472</v>
+        <v>0.06009646879840422</v>
       </c>
       <c r="T67" t="n">
-        <v>0.2580493609408787</v>
+        <v>0.2580493609408777</v>
       </c>
       <c r="U67" t="n">
-        <v>0.08929587787899232</v>
+        <v>0.08929587787899236</v>
       </c>
       <c r="V67" t="n">
-        <v>0.02724206099303172</v>
+        <v>0.02724206099303332</v>
       </c>
       <c r="W67" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.003956500000001029</v>
+        <v>0.001818500000013046</v>
       </c>
       <c r="Y67" t="n">
         <v>8</v>
@@ -5997,7 +5997,7 @@
         <v>19.8531231247467</v>
       </c>
       <c r="G68" t="n">
-        <v>28.06977395243373</v>
+        <v>28.06977395243374</v>
       </c>
       <c r="H68" t="n">
         <v>4.462442516460579</v>
@@ -6027,22 +6027,22 @@
         <v>22.26815418756322</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.01349436409116736</v>
+        <v>0.01349436409116726</v>
       </c>
       <c r="R68" t="n">
-        <v>0.186235933167707</v>
+        <v>0.1862359331677078</v>
       </c>
       <c r="S68" t="n">
-        <v>0.06070270798767458</v>
+        <v>0.06070270798767293</v>
       </c>
       <c r="T68" t="n">
-        <v>0.283294978904749</v>
+        <v>0.2832949789047462</v>
       </c>
       <c r="U68" t="n">
-        <v>0.08831391194692409</v>
+        <v>0.08831391194692413</v>
       </c>
       <c r="V68" t="n">
-        <v>0.1153937795805559</v>
+        <v>0.1153937795805566</v>
       </c>
       <c r="W68" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.002282499999992638</v>
+        <v>0.001577400000002172</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6076,13 +6076,13 @@
         <v>0.07801574435469881</v>
       </c>
       <c r="F69" t="n">
-        <v>19.67630478597495</v>
+        <v>19.67630478597496</v>
       </c>
       <c r="G69" t="n">
         <v>98.35247940979762</v>
       </c>
       <c r="H69" t="n">
-        <v>12.97542333358335</v>
+        <v>12.97542333358336</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -6103,28 +6103,28 @@
         <v>22.71174981430071</v>
       </c>
       <c r="O69" t="n">
-        <v>48.28896613902832</v>
+        <v>48.28896613902831</v>
       </c>
       <c r="P69" t="n">
-        <v>22.24028973173134</v>
+        <v>22.24028973173136</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.01511560371558662</v>
+        <v>0.01511560371558784</v>
       </c>
       <c r="R69" t="n">
-        <v>0.2510857873085572</v>
+        <v>0.251085787308607</v>
       </c>
       <c r="S69" t="n">
-        <v>0.2373461854021877</v>
+        <v>0.237346185402236</v>
       </c>
       <c r="T69" t="n">
-        <v>0.05221213934626186</v>
+        <v>0.05221213934626246</v>
       </c>
       <c r="U69" t="n">
-        <v>0.08773337390127771</v>
+        <v>0.08773337390127757</v>
       </c>
       <c r="V69" t="n">
-        <v>0.1163765884859118</v>
+        <v>0.11637658848591</v>
       </c>
       <c r="W69" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.003389600000005544</v>
+        <v>0.002186999999992167</v>
       </c>
       <c r="Y69" t="n">
         <v>11</v>
@@ -6161,10 +6161,10 @@
         <v>19.92515557012796</v>
       </c>
       <c r="G70" t="n">
-        <v>47.21534179138749</v>
+        <v>47.21534179138752</v>
       </c>
       <c r="H70" t="n">
-        <v>3.457253223968566</v>
+        <v>3.457253223968564</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -6191,22 +6191,22 @@
         <v>20.56165668767548</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.01362363319019926</v>
+        <v>0.01362363319019965</v>
       </c>
       <c r="R70" t="n">
-        <v>0.1653617743406638</v>
+        <v>0.1653617743406616</v>
       </c>
       <c r="S70" t="n">
-        <v>0.06488709643690962</v>
+        <v>0.06488709643691194</v>
       </c>
       <c r="T70" t="n">
-        <v>0.2317205083056673</v>
+        <v>0.2317205083056751</v>
       </c>
       <c r="U70" t="n">
-        <v>0.090550292761139</v>
+        <v>0.09055029276113899</v>
       </c>
       <c r="V70" t="n">
-        <v>0.07443838458557427</v>
+        <v>0.07443838458557624</v>
       </c>
       <c r="W70" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.002247900000000413</v>
+        <v>0.002328799999986586</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6240,10 +6240,10 @@
         <v>0.05147091044845423</v>
       </c>
       <c r="F71" t="n">
-        <v>19.50041604103387</v>
+        <v>19.50041604103386</v>
       </c>
       <c r="G71" t="n">
-        <v>53.12126133007472</v>
+        <v>53.12126133007471</v>
       </c>
       <c r="H71" t="n">
         <v>12.28764704951446</v>
@@ -6270,25 +6270,25 @@
         <v>26.7717675852275</v>
       </c>
       <c r="P71" t="n">
-        <v>28.82251855532033</v>
+        <v>28.82251855532031</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.01568084107279152</v>
+        <v>0.01568084107279193</v>
       </c>
       <c r="R71" t="n">
-        <v>0.2215292720743784</v>
+        <v>0.2215292720743983</v>
       </c>
       <c r="S71" t="n">
-        <v>0.1784346560161805</v>
+        <v>0.1784346560161973</v>
       </c>
       <c r="T71" t="n">
-        <v>0.1703898365164143</v>
+        <v>0.1703898365164244</v>
       </c>
       <c r="U71" t="n">
-        <v>0.09410469287029401</v>
+        <v>0.09410469287029403</v>
       </c>
       <c r="V71" t="n">
-        <v>0.1521207445025564</v>
+        <v>0.1521207445025595</v>
       </c>
       <c r="W71" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.002404699999999593</v>
+        <v>0.001839399999994384</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -6322,7 +6322,7 @@
         <v>0.03924299855335056</v>
       </c>
       <c r="F72" t="n">
-        <v>19.75794599287503</v>
+        <v>19.75794599287502</v>
       </c>
       <c r="G72" t="n">
         <v>167.1841251801176</v>
@@ -6349,28 +6349,28 @@
         <v>5.091810049838018</v>
       </c>
       <c r="O72" t="n">
-        <v>71.18912043654709</v>
+        <v>71.18912043654711</v>
       </c>
       <c r="P72" t="n">
-        <v>4.984071323640163</v>
+        <v>4.984071323640161</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.01346067305248867</v>
+        <v>0.01346067305246677</v>
       </c>
       <c r="R72" t="n">
-        <v>0.2446960822261566</v>
+        <v>0.2446960822254932</v>
       </c>
       <c r="S72" t="n">
-        <v>0.1008934345072742</v>
+        <v>0.1008934345070107</v>
       </c>
       <c r="T72" t="n">
-        <v>0.1713957369632217</v>
+        <v>0.1713957369627565</v>
       </c>
       <c r="U72" t="n">
-        <v>0.09082253868032146</v>
+        <v>0.09082253868032117</v>
       </c>
       <c r="V72" t="n">
-        <v>0.08734951718640174</v>
+        <v>0.08734951718638845</v>
       </c>
       <c r="W72" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.006220900000002416</v>
+        <v>0.004125599999980523</v>
       </c>
       <c r="Y72" t="n">
         <v>23</v>
@@ -6404,13 +6404,13 @@
         <v>0.02055586257400434</v>
       </c>
       <c r="F73" t="n">
-        <v>20.1171080847858</v>
+        <v>20.11710808478581</v>
       </c>
       <c r="G73" t="n">
-        <v>34.2090763943698</v>
+        <v>34.20907639436981</v>
       </c>
       <c r="H73" t="n">
-        <v>7.399856015971011</v>
+        <v>7.39985601597101</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -6434,25 +6434,25 @@
         <v>13.94714449216765</v>
       </c>
       <c r="P73" t="n">
-        <v>25.59898289330149</v>
+        <v>25.5989828933015</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.01494897768184334</v>
+        <v>0.01494897768184379</v>
       </c>
       <c r="R73" t="n">
-        <v>0.1924854159076468</v>
+        <v>0.1924854159076446</v>
       </c>
       <c r="S73" t="n">
-        <v>0.09184659887244831</v>
+        <v>0.09184659887245014</v>
       </c>
       <c r="T73" t="n">
-        <v>0.2469326833937459</v>
+        <v>0.2469326833937563</v>
       </c>
       <c r="U73" t="n">
-        <v>0.08810659040549491</v>
+        <v>0.08810659040549504</v>
       </c>
       <c r="V73" t="n">
-        <v>0.1115387711974833</v>
+        <v>0.1115387711974831</v>
       </c>
       <c r="W73" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.00303519999999935</v>
+        <v>0.002188099999983706</v>
       </c>
       <c r="Y73" t="n">
         <v>8</v>
@@ -6486,7 +6486,7 @@
         <v>359.9758021097018</v>
       </c>
       <c r="F74" t="n">
-        <v>19.95799980446176</v>
+        <v>19.95799980446175</v>
       </c>
       <c r="G74" t="n">
         <v>19.0373340704764</v>
@@ -6516,25 +6516,25 @@
         <v>10.54450079687453</v>
       </c>
       <c r="P74" t="n">
-        <v>30.86349977806575</v>
+        <v>30.86349977806574</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.01525509966164734</v>
+        <v>0.01525509966164705</v>
       </c>
       <c r="R74" t="n">
-        <v>0.230956581414198</v>
+        <v>0.2309565814141947</v>
       </c>
       <c r="S74" t="n">
-        <v>0.09182679352570226</v>
+        <v>0.09182679352569935</v>
       </c>
       <c r="T74" t="n">
-        <v>0.3492831114104584</v>
+        <v>0.349283111410449</v>
       </c>
       <c r="U74" t="n">
-        <v>0.09081078957632251</v>
+        <v>0.0908107895763224</v>
       </c>
       <c r="V74" t="n">
-        <v>0.07515685005137154</v>
+        <v>0.07515685005137096</v>
       </c>
       <c r="W74" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.002159900000009429</v>
+        <v>0.001679400000000442</v>
       </c>
       <c r="Y74" t="n">
         <v>8</v>
@@ -6568,7 +6568,7 @@
         <v>359.9765237405612</v>
       </c>
       <c r="F75" t="n">
-        <v>20.26989211843595</v>
+        <v>20.26989211843596</v>
       </c>
       <c r="G75" t="n">
         <v>115.4226157236912</v>
@@ -6595,28 +6595,28 @@
         <v>16.89259938730791</v>
       </c>
       <c r="O75" t="n">
-        <v>42.53174276258074</v>
+        <v>42.53174276258073</v>
       </c>
       <c r="P75" t="n">
-        <v>17.20432278643395</v>
+        <v>17.20432278643396</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.01494954719454957</v>
+        <v>0.01494954719454966</v>
       </c>
       <c r="R75" t="n">
-        <v>0.208847282751119</v>
+        <v>0.2088472827511254</v>
       </c>
       <c r="S75" t="n">
-        <v>0.1562382924944205</v>
+        <v>0.1562382924944241</v>
       </c>
       <c r="T75" t="n">
-        <v>0.05644043945157998</v>
+        <v>0.05644043945158096</v>
       </c>
       <c r="U75" t="n">
-        <v>0.08196313564235365</v>
+        <v>0.08196313564235372</v>
       </c>
       <c r="V75" t="n">
-        <v>0.1058627497196466</v>
+        <v>0.1058627497196398</v>
       </c>
       <c r="W75" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.002419700000004354</v>
+        <v>0.001826899999997522</v>
       </c>
       <c r="Y75" t="n">
         <v>9</v>
@@ -6680,25 +6680,25 @@
         <v>18.80599318207781</v>
       </c>
       <c r="P76" t="n">
-        <v>30.90782587647053</v>
+        <v>30.90782587647054</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.01604146769681922</v>
+        <v>0.01604146769681855</v>
       </c>
       <c r="R76" t="n">
-        <v>0.2238896876151136</v>
+        <v>0.2238896876151027</v>
       </c>
       <c r="S76" t="n">
-        <v>0.1441171037656049</v>
+        <v>0.1441171037655911</v>
       </c>
       <c r="T76" t="n">
-        <v>0.2439109545723279</v>
+        <v>0.2439109545723077</v>
       </c>
       <c r="U76" t="n">
-        <v>0.08194848443528965</v>
+        <v>0.08194848443528958</v>
       </c>
       <c r="V76" t="n">
-        <v>0.02334748130948473</v>
+        <v>0.02334748130948292</v>
       </c>
       <c r="W76" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.001988400000001889</v>
+        <v>0.001614199999977473</v>
       </c>
       <c r="Y76" t="n">
         <v>7</v>
@@ -6765,16 +6765,16 @@
         <v>17.6795100120262</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.01408222298658602</v>
+        <v>0.01408222298658653</v>
       </c>
       <c r="R77" t="n">
-        <v>0.1496532687619566</v>
+        <v>0.1496532687619609</v>
       </c>
       <c r="S77" t="n">
-        <v>0.07977211794723962</v>
+        <v>0.07977211794724512</v>
       </c>
       <c r="T77" t="n">
-        <v>0.1414198314316864</v>
+        <v>0.1414198314316907</v>
       </c>
       <c r="U77" t="n">
         <v>0.086262497133723</v>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.002199500000003241</v>
+        <v>0.001649099999980308</v>
       </c>
       <c r="Y77" t="n">
         <v>8</v>
@@ -6814,7 +6814,7 @@
         <v>359.978564247204</v>
       </c>
       <c r="F78" t="n">
-        <v>19.95181155296462</v>
+        <v>19.95181155296461</v>
       </c>
       <c r="G78" t="n">
         <v>55.99764656374208</v>
@@ -6847,22 +6847,22 @@
         <v>29.43065384336674</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.01617496716035325</v>
+        <v>0.01617496716035413</v>
       </c>
       <c r="R78" t="n">
-        <v>0.2357209667600753</v>
+        <v>0.2357209667600934</v>
       </c>
       <c r="S78" t="n">
-        <v>0.1951011161527478</v>
+        <v>0.1951011161527686</v>
       </c>
       <c r="T78" t="n">
-        <v>0.1670226276353463</v>
+        <v>0.1670226276353627</v>
       </c>
       <c r="U78" t="n">
-        <v>0.08581242781509073</v>
+        <v>0.08581242781509064</v>
       </c>
       <c r="V78" t="n">
-        <v>0.01737195395146247</v>
+        <v>0.01737195395146371</v>
       </c>
       <c r="W78" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.003488900000007789</v>
+        <v>0.001830900000015845</v>
       </c>
       <c r="Y78" t="n">
         <v>9</v>
@@ -6896,7 +6896,7 @@
         <v>0.009440015172186077</v>
       </c>
       <c r="F79" t="n">
-        <v>20.00742410040612</v>
+        <v>20.00742410040611</v>
       </c>
       <c r="G79" t="n">
         <v>165.3936126589941</v>
@@ -6926,25 +6926,25 @@
         <v>41.61540257991824</v>
       </c>
       <c r="P79" t="n">
-        <v>6.642772809444208</v>
+        <v>6.642772809444206</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.0132059757416052</v>
+        <v>0.0132059757416031</v>
       </c>
       <c r="R79" t="n">
-        <v>0.1436495384107121</v>
+        <v>0.1436495384106755</v>
       </c>
       <c r="S79" t="n">
-        <v>0.07270012624382811</v>
+        <v>0.07270012624380842</v>
       </c>
       <c r="T79" t="n">
-        <v>0.06048417993343785</v>
+        <v>0.0604841799334289</v>
       </c>
       <c r="U79" t="n">
-        <v>0.08987810156958248</v>
+        <v>0.08987810156958252</v>
       </c>
       <c r="V79" t="n">
-        <v>0.01492421565591263</v>
+        <v>0.0149242156559126</v>
       </c>
       <c r="W79" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.003449000000003366</v>
+        <v>0.002548199999978351</v>
       </c>
       <c r="Y79" t="n">
         <v>13</v>
@@ -6981,7 +6981,7 @@
         <v>20.34233059683955</v>
       </c>
       <c r="G80" t="n">
-        <v>9.091611610712658</v>
+        <v>9.09161161071267</v>
       </c>
       <c r="H80" t="n">
         <v>10.94729426818692</v>
@@ -7011,22 +7011,22 @@
         <v>30.86773988079749</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.01435110001141212</v>
+        <v>0.0143511000114122</v>
       </c>
       <c r="R80" t="n">
-        <v>0.2934557757164627</v>
+        <v>0.2934557757164646</v>
       </c>
       <c r="S80" t="n">
-        <v>0.06460271525347779</v>
+        <v>0.06460271525347806</v>
       </c>
       <c r="T80" t="n">
-        <v>0.4870091891693439</v>
+        <v>0.4870091891693475</v>
       </c>
       <c r="U80" t="n">
-        <v>0.09039029558197213</v>
+        <v>0.0903902955819721</v>
       </c>
       <c r="V80" t="n">
-        <v>0.08147353748621122</v>
+        <v>0.08147353748621314</v>
       </c>
       <c r="W80" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.002005600000003938</v>
+        <v>0.001540400000010322</v>
       </c>
       <c r="Y80" t="n">
         <v>7</v>
@@ -7060,13 +7060,13 @@
         <v>359.9125158938986</v>
       </c>
       <c r="F81" t="n">
-        <v>20.16122681012053</v>
+        <v>20.16122681012052</v>
       </c>
       <c r="G81" t="n">
         <v>88.99168429424866</v>
       </c>
       <c r="H81" t="n">
-        <v>8.843900251936269</v>
+        <v>8.843900251936265</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -7087,28 +7087,28 @@
         <v>20.83100353070742</v>
       </c>
       <c r="O81" t="n">
-        <v>33.53238565485185</v>
+        <v>33.53238565485184</v>
       </c>
       <c r="P81" t="n">
         <v>21.27178123854895</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.01537721029951018</v>
+        <v>0.0153772102995097</v>
       </c>
       <c r="R81" t="n">
-        <v>0.2050195305336939</v>
+        <v>0.2050195305336931</v>
       </c>
       <c r="S81" t="n">
-        <v>0.1559143223855547</v>
+        <v>0.155914322385552</v>
       </c>
       <c r="T81" t="n">
-        <v>0.083994113072398</v>
+        <v>0.08399411307239529</v>
       </c>
       <c r="U81" t="n">
-        <v>0.08492030371989651</v>
+        <v>0.08492030371989635</v>
       </c>
       <c r="V81" t="n">
-        <v>0.1321586656104778</v>
+        <v>0.1321586656104834</v>
       </c>
       <c r="W81" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.002644799999998781</v>
+        <v>0.001784700000001749</v>
       </c>
       <c r="Y81" t="n">
         <v>9</v>
@@ -7169,28 +7169,28 @@
         <v>22.12910312982312</v>
       </c>
       <c r="O82" t="n">
-        <v>42.05920057881472</v>
+        <v>42.0592005788147</v>
       </c>
       <c r="P82" t="n">
         <v>21.98811821252009</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.01540328714457272</v>
+        <v>0.01540328714457248</v>
       </c>
       <c r="R82" t="n">
-        <v>0.2326461596993282</v>
+        <v>0.2326461596992989</v>
       </c>
       <c r="S82" t="n">
-        <v>0.2023794358022415</v>
+        <v>0.2023794358022188</v>
       </c>
       <c r="T82" t="n">
-        <v>0.05936541812943116</v>
+        <v>0.05936541812943191</v>
       </c>
       <c r="U82" t="n">
-        <v>0.08593094476317865</v>
+        <v>0.08593094476317868</v>
       </c>
       <c r="V82" t="n">
-        <v>0.04730458611542079</v>
+        <v>0.04730458611541474</v>
       </c>
       <c r="W82" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.004376600000000508</v>
+        <v>0.002128199999987146</v>
       </c>
       <c r="Y82" t="n">
         <v>10</v>
@@ -7227,10 +7227,10 @@
         <v>20.27808351752703</v>
       </c>
       <c r="G83" t="n">
-        <v>65.67147925677001</v>
+        <v>65.67147925676998</v>
       </c>
       <c r="H83" t="n">
-        <v>7.000780353940596</v>
+        <v>7.000780353940603</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -7254,25 +7254,25 @@
         <v>22.73314502009019</v>
       </c>
       <c r="P83" t="n">
-        <v>22.90175245879887</v>
+        <v>22.90175245879889</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.01517298285897798</v>
+        <v>0.01517298285897738</v>
       </c>
       <c r="R83" t="n">
-        <v>0.1886652389192139</v>
+        <v>0.1886652389192021</v>
       </c>
       <c r="S83" t="n">
-        <v>0.1200565746425934</v>
+        <v>0.1200565746425826</v>
       </c>
       <c r="T83" t="n">
-        <v>0.148915194086541</v>
+        <v>0.1489151940865326</v>
       </c>
       <c r="U83" t="n">
-        <v>0.09105277789539963</v>
+        <v>0.09105277789539946</v>
       </c>
       <c r="V83" t="n">
-        <v>0.09356192855251763</v>
+        <v>0.09356192855251616</v>
       </c>
       <c r="W83" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.00214920000000518</v>
+        <v>0.001706000000012864</v>
       </c>
       <c r="Y83" t="n">
         <v>8</v>
@@ -7306,10 +7306,10 @@
         <v>359.9502575647733</v>
       </c>
       <c r="F84" t="n">
-        <v>19.9806326848954</v>
+        <v>19.98063268489539</v>
       </c>
       <c r="G84" t="n">
-        <v>48.96538101980586</v>
+        <v>48.96538101980585</v>
       </c>
       <c r="H84" t="n">
         <v>10.89633688608444</v>
@@ -7336,25 +7336,25 @@
         <v>23.0031480329616</v>
       </c>
       <c r="P84" t="n">
-        <v>28.19017960415092</v>
+        <v>28.19017960415091</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.01588997753928023</v>
+        <v>0.01588997753927941</v>
       </c>
       <c r="R84" t="n">
-        <v>0.2162935087008919</v>
+        <v>0.2162935087008789</v>
       </c>
       <c r="S84" t="n">
-        <v>0.1533466266865887</v>
+        <v>0.1533466266865748</v>
       </c>
       <c r="T84" t="n">
-        <v>0.1871122961968098</v>
+        <v>0.1871122961967949</v>
       </c>
       <c r="U84" t="n">
-        <v>0.09700230742026787</v>
+        <v>0.09700230742026789</v>
       </c>
       <c r="V84" t="n">
-        <v>0.086351168389737</v>
+        <v>0.08635116838973686</v>
       </c>
       <c r="W84" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.002795700000007173</v>
+        <v>0.001600300000006882</v>
       </c>
       <c r="Y84" t="n">
         <v>8</v>
@@ -7391,10 +7391,10 @@
         <v>19.77910546214187</v>
       </c>
       <c r="G85" t="n">
-        <v>46.16348478163823</v>
+        <v>46.16348478163824</v>
       </c>
       <c r="H85" t="n">
-        <v>11.04536224455738</v>
+        <v>11.04536224455737</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -7418,25 +7418,25 @@
         <v>22.16524891474864</v>
       </c>
       <c r="P85" t="n">
-        <v>28.44489399257784</v>
+        <v>28.44489399257783</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.01571814690051011</v>
+        <v>0.0157181469005106</v>
       </c>
       <c r="R85" t="n">
-        <v>0.2131764478960087</v>
+        <v>0.2131764478960126</v>
       </c>
       <c r="S85" t="n">
-        <v>0.1491321867692195</v>
+        <v>0.1491321867692267</v>
       </c>
       <c r="T85" t="n">
-        <v>0.1951182322563307</v>
+        <v>0.195118232256341</v>
       </c>
       <c r="U85" t="n">
-        <v>0.08910083914003472</v>
+        <v>0.08910083914003469</v>
       </c>
       <c r="V85" t="n">
-        <v>0.06797677463693033</v>
+        <v>0.06797677463693155</v>
       </c>
       <c r="W85" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.001924799999997617</v>
+        <v>0.001439099999998916</v>
       </c>
       <c r="Y85" t="n">
         <v>7</v>
@@ -7476,7 +7476,7 @@
         <v>8.136175650295453</v>
       </c>
       <c r="H86" t="n">
-        <v>7.346596105525816</v>
+        <v>7.346596105525815</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -7503,22 +7503,22 @@
         <v>26.43839331129998</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.01343374400842526</v>
+        <v>0.01343374400842515</v>
       </c>
       <c r="R86" t="n">
-        <v>0.2829810833544623</v>
+        <v>0.2829810833544584</v>
       </c>
       <c r="S86" t="n">
-        <v>0.05149280758870908</v>
+        <v>0.05149280758870884</v>
       </c>
       <c r="T86" t="n">
-        <v>0.4597164629076494</v>
+        <v>0.4597164629076417</v>
       </c>
       <c r="U86" t="n">
-        <v>0.1005717706903662</v>
+        <v>0.1005717706903663</v>
       </c>
       <c r="V86" t="n">
-        <v>0.05301662217900743</v>
+        <v>0.05301662217900773</v>
       </c>
       <c r="W86" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.001909200000000055</v>
+        <v>0.001904699999982995</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7558,7 +7558,7 @@
         <v>111.5442559258423</v>
       </c>
       <c r="H87" t="n">
-        <v>9.115418049027836</v>
+        <v>9.115418049027838</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -7579,28 +7579,28 @@
         <v>17.50678391245108</v>
       </c>
       <c r="O87" t="n">
-        <v>40.29945656737502</v>
+        <v>40.29945656737501</v>
       </c>
       <c r="P87" t="n">
-        <v>17.55064888723913</v>
+        <v>17.55064888723914</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.01471017289645342</v>
+        <v>0.01471017289645305</v>
       </c>
       <c r="R87" t="n">
-        <v>0.1998793658132845</v>
+        <v>0.1998793658132584</v>
       </c>
       <c r="S87" t="n">
-        <v>0.1497228987008689</v>
+        <v>0.1497228987008515</v>
       </c>
       <c r="T87" t="n">
-        <v>0.05630644113325739</v>
+        <v>0.0563064411332578</v>
       </c>
       <c r="U87" t="n">
-        <v>0.09186656769904958</v>
+        <v>0.09186656769904944</v>
       </c>
       <c r="V87" t="n">
-        <v>0.01383829359651501</v>
+        <v>0.01383829359652294</v>
       </c>
       <c r="W87" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.002449299999994992</v>
+        <v>0.001892200000014554</v>
       </c>
       <c r="Y87" t="n">
         <v>9</v>
@@ -7634,13 +7634,13 @@
         <v>359.9911811980465</v>
       </c>
       <c r="F88" t="n">
-        <v>20.01392191151908</v>
+        <v>20.01392191151907</v>
       </c>
       <c r="G88" t="n">
-        <v>37.37724116830682</v>
+        <v>37.37724116830681</v>
       </c>
       <c r="H88" t="n">
-        <v>5.329305166850767</v>
+        <v>5.329305166850768</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -7667,22 +7667,22 @@
         <v>23.03968999602132</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.01427982077814203</v>
+        <v>0.01427982077814213</v>
       </c>
       <c r="R88" t="n">
-        <v>0.1782734800367672</v>
+        <v>0.1782734800367667</v>
       </c>
       <c r="S88" t="n">
-        <v>0.07645367651497953</v>
+        <v>0.07645367651497971</v>
       </c>
       <c r="T88" t="n">
-        <v>0.2411847377882881</v>
+        <v>0.2411847377882916</v>
       </c>
       <c r="U88" t="n">
-        <v>0.09119743705093127</v>
+        <v>0.09119743705093128</v>
       </c>
       <c r="V88" t="n">
-        <v>0.1147370618319076</v>
+        <v>0.1147370618319072</v>
       </c>
       <c r="W88" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.002150000000000318</v>
+        <v>0.001746800000006488</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7749,22 +7749,22 @@
         <v>18.8341042032651</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.01528123802236106</v>
+        <v>0.01528123802235936</v>
       </c>
       <c r="R89" t="n">
-        <v>0.289798039375459</v>
+        <v>0.2897980393753665</v>
       </c>
       <c r="S89" t="n">
-        <v>0.2615435404677626</v>
+        <v>0.2615435404676826</v>
       </c>
       <c r="T89" t="n">
-        <v>0.113600767505436</v>
+        <v>0.1136007675054006</v>
       </c>
       <c r="U89" t="n">
-        <v>0.09084457730864418</v>
+        <v>0.09084457730864423</v>
       </c>
       <c r="V89" t="n">
-        <v>0.009552715004319944</v>
+        <v>0.009552715004319638</v>
       </c>
       <c r="W89" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.006202200000004154</v>
+        <v>0.00398649999999634</v>
       </c>
       <c r="Y89" t="n">
         <v>19</v>
@@ -7798,13 +7798,13 @@
         <v>0.0002464104406768307</v>
       </c>
       <c r="F90" t="n">
-        <v>20.29070551384768</v>
+        <v>20.29070551384769</v>
       </c>
       <c r="G90" t="n">
         <v>116.429939065955</v>
       </c>
       <c r="H90" t="n">
-        <v>9.260660533470816</v>
+        <v>9.260660533470819</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7831,22 +7831,22 @@
         <v>16.90257086089418</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.01484554065470263</v>
+        <v>0.0148455406547025</v>
       </c>
       <c r="R90" t="n">
-        <v>0.2029759635812515</v>
+        <v>0.2029759635812435</v>
       </c>
       <c r="S90" t="n">
-        <v>0.1484069641519856</v>
+        <v>0.1484069641519809</v>
       </c>
       <c r="T90" t="n">
-        <v>0.05657058857183622</v>
+        <v>0.0565705885718349</v>
       </c>
       <c r="U90" t="n">
-        <v>0.0896513924565403</v>
+        <v>0.08965139245654039</v>
       </c>
       <c r="V90" t="n">
-        <v>0.08581605391034941</v>
+        <v>0.0858160539103511</v>
       </c>
       <c r="W90" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.002399300000007543</v>
+        <v>0.001941399999992655</v>
       </c>
       <c r="Y90" t="n">
         <v>9</v>
@@ -7910,25 +7910,25 @@
         <v>25.91214200469731</v>
       </c>
       <c r="P91" t="n">
-        <v>19.13641168214222</v>
+        <v>19.13641168214223</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.01451221697632357</v>
+        <v>0.01451221697632427</v>
       </c>
       <c r="R91" t="n">
-        <v>0.170018269829806</v>
+        <v>0.1700182698298098</v>
       </c>
       <c r="S91" t="n">
-        <v>0.1095032131027244</v>
+        <v>0.1095032131027321</v>
       </c>
       <c r="T91" t="n">
-        <v>0.1078116855208072</v>
+        <v>0.1078116855208138</v>
       </c>
       <c r="U91" t="n">
-        <v>0.09355491393510511</v>
+        <v>0.09355491393510525</v>
       </c>
       <c r="V91" t="n">
-        <v>0.09727506823296718</v>
+        <v>0.09727506823296657</v>
       </c>
       <c r="W91" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.003149100000001681</v>
+        <v>0.001764600000001337</v>
       </c>
       <c r="Y91" t="n">
         <v>9</v>
@@ -7965,10 +7965,10 @@
         <v>19.72733662505944</v>
       </c>
       <c r="G92" t="n">
-        <v>26.17627049256475</v>
+        <v>26.17627049256474</v>
       </c>
       <c r="H92" t="n">
-        <v>5.130881246033799</v>
+        <v>5.130881246033797</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7989,28 +7989,28 @@
         <v>22.92041397631485</v>
       </c>
       <c r="O92" t="n">
-        <v>9.717871137207384</v>
+        <v>9.717871137207371</v>
       </c>
       <c r="P92" t="n">
         <v>22.96611216415473</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.01359791273699732</v>
+        <v>0.01359791273699738</v>
       </c>
       <c r="R92" t="n">
-        <v>0.1876888291855192</v>
+        <v>0.1876888291855198</v>
       </c>
       <c r="S92" t="n">
-        <v>0.06316968736333479</v>
+        <v>0.06316968736333436</v>
       </c>
       <c r="T92" t="n">
-        <v>0.2848814832568107</v>
+        <v>0.2848814832568136</v>
       </c>
       <c r="U92" t="n">
-        <v>0.09643636464731146</v>
+        <v>0.09643636464731171</v>
       </c>
       <c r="V92" t="n">
-        <v>0.1703044633155749</v>
+        <v>0.1703044633155812</v>
       </c>
       <c r="W92" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.002153800000002093</v>
+        <v>0.001621400000004769</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8050,7 +8050,7 @@
         <v>35.96826402689314</v>
       </c>
       <c r="H93" t="n">
-        <v>6.950940813605867</v>
+        <v>6.950940813605865</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -8077,22 +8077,22 @@
         <v>24.70291876464501</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.01463250137904588</v>
+        <v>0.01463250137904627</v>
       </c>
       <c r="R93" t="n">
-        <v>0.1837747379914856</v>
+        <v>0.1837747379914841</v>
       </c>
       <c r="S93" t="n">
-        <v>0.08868859395793718</v>
+        <v>0.0886885939579394</v>
       </c>
       <c r="T93" t="n">
-        <v>0.2339594365318424</v>
+        <v>0.2339594365318497</v>
       </c>
       <c r="U93" t="n">
-        <v>0.08464735918707481</v>
+        <v>0.08464735918707485</v>
       </c>
       <c r="V93" t="n">
-        <v>0.01836196742496572</v>
+        <v>0.01836196742496531</v>
       </c>
       <c r="W93" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.003808100000000536</v>
+        <v>0.001733900000004951</v>
       </c>
       <c r="Y93" t="n">
         <v>8</v>
@@ -8132,7 +8132,7 @@
         <v>160.1749712774854</v>
       </c>
       <c r="H94" t="n">
-        <v>12.09343212508668</v>
+        <v>12.09343212508669</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -8153,28 +8153,28 @@
         <v>7.253282679324334</v>
       </c>
       <c r="O94" t="n">
-        <v>62.26489968709276</v>
+        <v>62.26489968709275</v>
       </c>
       <c r="P94" t="n">
-        <v>6.913300945403947</v>
+        <v>6.913300945403952</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.01368824260535678</v>
+        <v>0.01368824260534937</v>
       </c>
       <c r="R94" t="n">
-        <v>0.2113307110249799</v>
+        <v>0.2113307110247751</v>
       </c>
       <c r="S94" t="n">
-        <v>0.107918805658458</v>
+        <v>0.1079188056583577</v>
       </c>
       <c r="T94" t="n">
-        <v>0.1264966893556847</v>
+        <v>0.1264966893555629</v>
       </c>
       <c r="U94" t="n">
-        <v>0.08003509434138431</v>
+        <v>0.08003509434138435</v>
       </c>
       <c r="V94" t="n">
-        <v>0.1777506711647496</v>
+        <v>0.1777506711647405</v>
       </c>
       <c r="W94" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.00526520000001085</v>
+        <v>0.004035199999975703</v>
       </c>
       <c r="Y94" t="n">
         <v>22</v>
@@ -8241,16 +8241,16 @@
         <v>18.62225842033163</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.01488142273476948</v>
+        <v>0.0148814227347702</v>
       </c>
       <c r="R95" t="n">
-        <v>0.2207062547911337</v>
+        <v>0.2207062547911346</v>
       </c>
       <c r="S95" t="n">
-        <v>0.1816203347371265</v>
+        <v>0.1816203347371315</v>
       </c>
       <c r="T95" t="n">
-        <v>0.05486971978068533</v>
+        <v>0.05486971978068379</v>
       </c>
       <c r="U95" t="n">
         <v>0.08101353903035433</v>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.003679800000000455</v>
+        <v>0.002584999999982074</v>
       </c>
       <c r="Y95" t="n">
         <v>10</v>
@@ -8320,25 +8320,25 @@
         <v>48.22760658175262</v>
       </c>
       <c r="P96" t="n">
-        <v>14.2171518471761</v>
+        <v>14.21715184717611</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.0143026956261932</v>
+        <v>0.01430269562619605</v>
       </c>
       <c r="R96" t="n">
-        <v>0.2013844798016043</v>
+        <v>0.2013844798016995</v>
       </c>
       <c r="S96" t="n">
-        <v>0.143998565357444</v>
+        <v>0.1439985653575105</v>
       </c>
       <c r="T96" t="n">
-        <v>0.06678318127623313</v>
+        <v>0.06678318127625454</v>
       </c>
       <c r="U96" t="n">
-        <v>0.08964581541729724</v>
+        <v>0.08964581541729738</v>
       </c>
       <c r="V96" t="n">
-        <v>0.05772288983562843</v>
+        <v>0.05772288983562836</v>
       </c>
       <c r="W96" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.003823300000007634</v>
+        <v>0.002970599999997603</v>
       </c>
       <c r="Y96" t="n">
         <v>15</v>
@@ -8375,10 +8375,10 @@
         <v>20.01154260375209</v>
       </c>
       <c r="G97" t="n">
-        <v>40.82411177913812</v>
+        <v>40.82411177913814</v>
       </c>
       <c r="H97" t="n">
-        <v>5.367640352031586</v>
+        <v>5.367640352031583</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -8402,25 +8402,25 @@
         <v>13.57153178854807</v>
       </c>
       <c r="P97" t="n">
-        <v>22.90901239526378</v>
+        <v>22.90901239526377</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.01436950515991492</v>
+        <v>0.01436950515991494</v>
       </c>
       <c r="R97" t="n">
-        <v>0.1759679425883664</v>
+        <v>0.175967942588365</v>
       </c>
       <c r="S97" t="n">
-        <v>0.07984581395594477</v>
+        <v>0.07984581395594412</v>
       </c>
       <c r="T97" t="n">
-        <v>0.2281830530147596</v>
+        <v>0.2281830530147603</v>
       </c>
       <c r="U97" t="n">
-        <v>0.0849522518332097</v>
+        <v>0.08495225183320977</v>
       </c>
       <c r="V97" t="n">
-        <v>0.05489091439673537</v>
+        <v>0.05489091439673358</v>
       </c>
       <c r="W97" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.003503299999991327</v>
+        <v>0.001652800000016441</v>
       </c>
       <c r="Y97" t="n">
         <v>8</v>
@@ -8454,13 +8454,13 @@
         <v>0.07122288004982992</v>
       </c>
       <c r="F98" t="n">
-        <v>19.90313815783385</v>
+        <v>19.90313815783388</v>
       </c>
       <c r="G98" t="n">
-        <v>38.95333848888152</v>
+        <v>38.95333848888155</v>
       </c>
       <c r="H98" t="n">
-        <v>13.50981768458449</v>
+        <v>13.5098176845845</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -8484,25 +8484,25 @@
         <v>20.85303696425958</v>
       </c>
       <c r="P98" t="n">
-        <v>31.98940090484755</v>
+        <v>31.98940090484759</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.01619122295282086</v>
+        <v>0.01619122295282066</v>
       </c>
       <c r="R98" t="n">
-        <v>0.2328952169619931</v>
+        <v>0.2328952169619919</v>
       </c>
       <c r="S98" t="n">
-        <v>0.1642047404162513</v>
+        <v>0.1642047404162468</v>
       </c>
       <c r="T98" t="n">
-        <v>0.2391029454715514</v>
+        <v>0.2391029454715445</v>
       </c>
       <c r="U98" t="n">
-        <v>0.08706636004065893</v>
+        <v>0.0870663600406589</v>
       </c>
       <c r="V98" t="n">
-        <v>0.1127567439791795</v>
+        <v>0.1127567439791753</v>
       </c>
       <c r="W98" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.002185400000001891</v>
+        <v>0.001768999999995913</v>
       </c>
       <c r="Y98" t="n">
         <v>8</v>
@@ -8536,13 +8536,13 @@
         <v>0.05827957183626227</v>
       </c>
       <c r="F99" t="n">
-        <v>19.7206710577301</v>
+        <v>19.72067105773015</v>
       </c>
       <c r="G99" t="n">
-        <v>150.9020015017194</v>
+        <v>150.9020015017193</v>
       </c>
       <c r="H99" t="n">
-        <v>14.37371254631088</v>
+        <v>14.37371254631092</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -8563,28 +8563,28 @@
         <v>9.999091878929827</v>
       </c>
       <c r="O99" t="n">
-        <v>78.01827536116177</v>
+        <v>78.01827536116176</v>
       </c>
       <c r="P99" t="n">
-        <v>9.791847388821456</v>
+        <v>9.791847388821488</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.01495882385255207</v>
+        <v>0.01495882385255516</v>
       </c>
       <c r="R99" t="n">
-        <v>0.3222482355719854</v>
+        <v>0.3222482355720833</v>
       </c>
       <c r="S99" t="n">
-        <v>0.1929144846790706</v>
+        <v>0.1929144846791301</v>
       </c>
       <c r="T99" t="n">
-        <v>0.2315889438747952</v>
+        <v>0.2315889438748647</v>
       </c>
       <c r="U99" t="n">
-        <v>0.08846734525336326</v>
+        <v>0.08846734525336337</v>
       </c>
       <c r="V99" t="n">
-        <v>0.09869259645933975</v>
+        <v>0.09869259645932603</v>
       </c>
       <c r="W99" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.007246899999998391</v>
+        <v>0.004290700000012748</v>
       </c>
       <c r="Y99" t="n">
         <v>23</v>
@@ -8618,13 +8618,13 @@
         <v>0.09457732726954866</v>
       </c>
       <c r="F100" t="n">
-        <v>19.53322857774658</v>
+        <v>19.53322857774659</v>
       </c>
       <c r="G100" t="n">
-        <v>132.7188137516382</v>
+        <v>132.7188137516381</v>
       </c>
       <c r="H100" t="n">
-        <v>9.482744191913051</v>
+        <v>9.482744191913056</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -8648,25 +8648,25 @@
         <v>46.11722839666179</v>
       </c>
       <c r="P100" t="n">
-        <v>13.26790757233849</v>
+        <v>13.2679075723385</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.01376329211843854</v>
+        <v>0.01376329211843795</v>
       </c>
       <c r="R100" t="n">
-        <v>0.1836018814230072</v>
+        <v>0.1836018814229977</v>
       </c>
       <c r="S100" t="n">
-        <v>0.1268528236835023</v>
+        <v>0.1268528236834948</v>
       </c>
       <c r="T100" t="n">
-        <v>0.0607976938427893</v>
+        <v>0.06079769384278793</v>
       </c>
       <c r="U100" t="n">
-        <v>0.09780495571661647</v>
+        <v>0.09780495571661654</v>
       </c>
       <c r="V100" t="n">
-        <v>0.1837535733747865</v>
+        <v>0.1837535733747824</v>
       </c>
       <c r="W100" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.003326399999991736</v>
+        <v>0.00255150000000981</v>
       </c>
       <c r="Y100" t="n">
         <v>13</v>
@@ -8700,13 +8700,13 @@
         <v>359.9661892081029</v>
       </c>
       <c r="F101" t="n">
-        <v>20.15088607603816</v>
+        <v>20.15088607603814</v>
       </c>
       <c r="G101" t="n">
         <v>120.7940426715596</v>
       </c>
       <c r="H101" t="n">
-        <v>8.959509783346828</v>
+        <v>8.959509783346823</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -8730,25 +8730,25 @@
         <v>40.82698956778771</v>
       </c>
       <c r="P101" t="n">
-        <v>15.89863960427778</v>
+        <v>15.89863960427777</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.01465811821248506</v>
+        <v>0.01465811821248559</v>
       </c>
       <c r="R101" t="n">
-        <v>0.1934828850219586</v>
+        <v>0.19348288502198</v>
       </c>
       <c r="S101" t="n">
-        <v>0.1376027070262979</v>
+        <v>0.1376027070263123</v>
       </c>
       <c r="T101" t="n">
-        <v>0.05611278462375915</v>
+        <v>0.05611278462376031</v>
       </c>
       <c r="U101" t="n">
-        <v>0.08747713632013213</v>
+        <v>0.08747713632013214</v>
       </c>
       <c r="V101" t="n">
-        <v>0.05813635571424704</v>
+        <v>0.05813635571424404</v>
       </c>
       <c r="W101" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.002706200000005765</v>
+        <v>0.002325599999977612</v>
       </c>
       <c r="Y101" t="n">
         <v>10</v>
